--- a/dumps/Stocks/SBI ETF Gold.xlsx
+++ b/dumps/Stocks/SBI ETF Gold.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1015"/>
+  <dimension ref="A1:AP1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1108,11 +1108,11 @@
     </row>
     <row r="5">
       <c r="A5" s="93" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1121,232 +1121,163 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>400</v>
+      </c>
+      <c r="E5" t="n">
+        <v>131.5987</v>
+      </c>
+      <c r="F5" t="n">
+        <v>52639.48</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="93" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" s="0" t="n">
         <v>132.0378</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" s="0" t="n">
         <v>66018.89999999999</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" s="0" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="31" t="n">
+    <row r="7">
+      <c r="A7" s="31" t="n">
         <v>45863</v>
       </c>
-      <c r="B6" s="32" t="inlineStr">
+      <c r="B7" s="32" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="C7" s="32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D7" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E7" s="34" t="n">
         <v>4.75</v>
       </c>
-      <c r="F6" s="34" t="n">
+      <c r="F7" s="34" t="n">
         <v>475</v>
       </c>
-      <c r="G6" s="32" t="inlineStr">
+      <c r="G7" s="32" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.4.7500/- per share on Ex-Date: 25-JUL-2025</t>
         </is>
       </c>
-      <c r="H6" s="34" t="n">
+      <c r="H7" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I7" s="33" t="n">
         <v>0</v>
-      </c>
-      <c r="J6" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K6" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L6" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M6" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N6" s="38">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O6" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P6" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R6" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S6" s="39">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T6" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U6" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V6" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W6" s="40" t="n"/>
-      <c r="X6" s="40" t="n"/>
-      <c r="Y6" s="39">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="40" t="n"/>
-      <c r="AA6" s="40" t="n"/>
-      <c r="AB6" s="41" t="n"/>
-      <c r="AC6" s="37">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD6" s="42" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="43" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B7" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C7" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D7" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E7" s="46" t="n">
-        <v>114.17</v>
-      </c>
-      <c r="F7" s="46" t="n">
-        <v>6850.01</v>
-      </c>
-      <c r="G7" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H7" s="46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I7" s="45" t="n">
-        <v>41.63</v>
       </c>
       <c r="J7" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K7" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L7" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M7" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N7" s="38">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O7" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P7" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q7" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R7" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S7" s="39">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T7" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U7" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V7" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W7" s="40" t="n"/>
       <c r="X7" s="40" t="n"/>
       <c r="Y7" s="39">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z7" s="40" t="n"/>
       <c r="AA7" s="40" t="n"/>
       <c r="AB7" s="41" t="n"/>
       <c r="AC7" s="37">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD7" s="42" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="43" t="n">
-        <v>45492</v>
+        <v>45699</v>
       </c>
       <c r="B8" s="44" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C8" s="44" t="inlineStr">
@@ -1355,99 +1286,99 @@
         </is>
       </c>
       <c r="D8" s="45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E8" s="46" t="n">
-        <v>3.6</v>
+        <v>114.17</v>
       </c>
       <c r="F8" s="46" t="n">
-        <v>144</v>
+        <v>6850.01</v>
       </c>
       <c r="G8" s="44" t="inlineStr">
         <is>
-          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H8" s="46" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="I8" s="45" t="n">
-        <v>0</v>
+        <v>41.63</v>
       </c>
       <c r="J8" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K8" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L8" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M8" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N8" s="38">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O8" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P8" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q8" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R8" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S8" s="39">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T8" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U8" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V8" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W8" s="40" t="n"/>
       <c r="X8" s="40" t="n"/>
       <c r="Y8" s="39">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z8" s="40" t="n"/>
       <c r="AA8" s="40" t="n"/>
       <c r="AB8" s="41" t="n"/>
       <c r="AC8" s="37">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD8" s="42" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="43" t="n">
-        <v>45282</v>
+        <v>45492</v>
       </c>
       <c r="B9" s="44" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C9" s="44" t="inlineStr">
@@ -1456,99 +1387,95 @@
         </is>
       </c>
       <c r="D9" s="45" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E9" s="46" t="n">
-        <v>117.99</v>
+        <v>3.6</v>
       </c>
       <c r="F9" s="46" t="n">
-        <v>2359.71</v>
+        <v>144</v>
       </c>
       <c r="G9" s="44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
         </is>
       </c>
       <c r="H9" s="46" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="I9" s="45" t="n">
-        <v>14.37</v>
+        <v>0</v>
       </c>
       <c r="J9" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K9" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L9" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M9" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N9" s="38">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O9" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P9" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q9" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R9" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S9" s="39">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T9" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U9" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V9" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W9" s="40" t="n"/>
       <c r="X9" s="40" t="n"/>
       <c r="Y9" s="39">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z9" s="40" t="n"/>
       <c r="AA9" s="40" t="n"/>
       <c r="AB9" s="41" t="n"/>
       <c r="AC9" s="37">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD9" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD9" s="42" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="43" t="n">
-        <v>45278</v>
+        <v>45282</v>
       </c>
       <c r="B10" s="44" t="inlineStr">
         <is>
@@ -1561,13 +1488,13 @@
         </is>
       </c>
       <c r="D10" s="45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E10" s="46" t="n">
-        <v>125.73</v>
+        <v>117.99</v>
       </c>
       <c r="F10" s="46" t="n">
-        <v>1257.3</v>
+        <v>2359.71</v>
       </c>
       <c r="G10" s="44" t="inlineStr">
         <is>
@@ -1575,74 +1502,74 @@
         </is>
       </c>
       <c r="H10" s="46" t="n">
-        <v>1.25</v>
+        <v>2.34</v>
       </c>
       <c r="I10" s="45" t="n">
-        <v>7.55</v>
+        <v>14.37</v>
       </c>
       <c r="J10" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K10" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L10" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M10" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N10" s="38">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O10" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P10" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q10" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R10" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S10" s="39">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T10" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U10" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V10" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W10" s="40" t="n"/>
       <c r="X10" s="40" t="n"/>
       <c r="Y10" s="39">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z10" s="40" t="n"/>
       <c r="AA10" s="40" t="n"/>
       <c r="AB10" s="41" t="n"/>
       <c r="AC10" s="37">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD10" s="47" t="inlineStr">
@@ -1653,7 +1580,7 @@
     </row>
     <row r="11">
       <c r="A11" s="43" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B11" s="44" t="inlineStr">
         <is>
@@ -1669,10 +1596,10 @@
         <v>10</v>
       </c>
       <c r="E11" s="46" t="n">
-        <v>107.7</v>
+        <v>125.73</v>
       </c>
       <c r="F11" s="46" t="n">
-        <v>1077.03</v>
+        <v>1257.3</v>
       </c>
       <c r="G11" s="44" t="inlineStr">
         <is>
@@ -1680,74 +1607,74 @@
         </is>
       </c>
       <c r="H11" s="46" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="I11" s="45" t="n">
-        <v>6.46</v>
+        <v>7.55</v>
       </c>
       <c r="J11" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K11" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L11" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M11" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N11" s="38">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O11" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P11" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q11" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R11" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S11" s="39">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T11" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U11" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V11" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W11" s="40" t="n"/>
       <c r="X11" s="40" t="n"/>
       <c r="Y11" s="39">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z11" s="40" t="n"/>
       <c r="AA11" s="40" t="n"/>
       <c r="AB11" s="41" t="n"/>
       <c r="AC11" s="37">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD11" s="47" t="inlineStr">
@@ -1757,8 +1684,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="n">
-        <v>44257</v>
+      <c r="A12" s="43" t="n">
+        <v>45258</v>
       </c>
       <c r="B12" s="44" t="inlineStr">
         <is>
@@ -1767,17 +1694,17 @@
       </c>
       <c r="C12" s="44" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D12" s="45" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E12" s="46" t="n">
-        <v>40.49</v>
+        <v>107.7</v>
       </c>
       <c r="F12" s="46" t="n">
-        <v>8097.1</v>
+        <v>1077.03</v>
       </c>
       <c r="G12" s="44" t="inlineStr">
         <is>
@@ -1785,74 +1712,74 @@
         </is>
       </c>
       <c r="H12" s="46" t="n">
-        <v>8.130000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="I12" s="45" t="n">
-        <v>47.47</v>
+        <v>6.46</v>
       </c>
       <c r="J12" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K12" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L12" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M12" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N12" s="38">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O12" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P12" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q12" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R12" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S12" s="39">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T12" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U12" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V12" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W12" s="40" t="n"/>
       <c r="X12" s="40" t="n"/>
       <c r="Y12" s="39">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z12" s="40" t="n"/>
       <c r="AA12" s="40" t="n"/>
       <c r="AB12" s="41" t="n"/>
       <c r="AC12" s="37">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD12" s="47" t="inlineStr">
@@ -1863,7 +1790,7 @@
     </row>
     <row r="13">
       <c r="A13" s="48" t="n">
-        <v>44021</v>
+        <v>44257</v>
       </c>
       <c r="B13" s="44" t="inlineStr">
         <is>
@@ -1872,17 +1799,17 @@
       </c>
       <c r="C13" s="44" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D13" s="45" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="E13" s="46" t="n">
-        <v>33.03</v>
+        <v>40.49</v>
       </c>
       <c r="F13" s="46" t="n">
-        <v>3335.87</v>
+        <v>8097.1</v>
       </c>
       <c r="G13" s="44" t="inlineStr">
         <is>
@@ -1890,55 +1817,76 @@
         </is>
       </c>
       <c r="H13" s="46" t="n">
-        <v>3.36</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I13" s="45" t="n">
-        <v>19.71</v>
+        <v>47.47</v>
       </c>
       <c r="J13" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K13" s="54" t="n"/>
-      <c r="L13" s="54">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+      <c r="K13" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M13" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+      <c r="L13" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N13" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M13" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O13" s="52" t="n"/>
-      <c r="P13" s="54" t="n"/>
-      <c r="Q13" s="50" t="n"/>
-      <c r="R13" s="50" t="n"/>
-      <c r="S13" s="53" t="n"/>
-      <c r="T13" s="53" t="n"/>
-      <c r="U13" s="53" t="n"/>
-      <c r="V13" s="53" t="n"/>
-      <c r="W13" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X13" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y13" s="39" t="n">
-        <v>0.2090873907</v>
-      </c>
-      <c r="Z13" s="54" t="n">
-        <v>702.312</v>
-      </c>
-      <c r="AA13" s="54" t="n">
-        <v>4061.412</v>
-      </c>
-      <c r="AB13" s="55" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="54" t="n"/>
+      <c r="N13" s="38">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O13" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P13" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R13" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S13" s="39">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T13" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U13" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V13" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W13" s="40" t="n"/>
+      <c r="X13" s="40" t="n"/>
+      <c r="Y13" s="39">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z13" s="40" t="n"/>
+      <c r="AA13" s="40" t="n"/>
+      <c r="AB13" s="41" t="n"/>
+      <c r="AC13" s="37">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD13" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
@@ -1946,12 +1894,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="43" t="n">
-        <v>43910</v>
+      <c r="A14" s="48" t="n">
+        <v>44021</v>
       </c>
       <c r="B14" s="44" t="inlineStr">
         <is>
-          <t>MRGR</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C14" s="44" t="inlineStr">
@@ -1960,24 +1908,24 @@
         </is>
       </c>
       <c r="D14" s="45" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="46" t="n">
-        <v>143.44</v>
+        <v>33.03</v>
       </c>
       <c r="F14" s="46" t="n">
-        <v>14200.35</v>
+        <v>3335.87</v>
       </c>
       <c r="G14" s="44" t="inlineStr">
         <is>
-          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H14" s="46" t="n">
-        <v>14</v>
+        <v>3.36</v>
       </c>
       <c r="I14" s="45" t="n">
-        <v>86.34999999999999</v>
+        <v>19.71</v>
       </c>
       <c r="J14" s="35">
         <f>Index!$C$2</f>
@@ -1985,15 +1933,15 @@
       </c>
       <c r="K14" s="54" t="n"/>
       <c r="L14" s="54">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
         <v/>
       </c>
       <c r="M14" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
         <v/>
       </c>
       <c r="N14" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O14" s="52" t="n"/>
@@ -2011,16 +1959,16 @@
         <v>44257</v>
       </c>
       <c r="Y14" s="39" t="n">
-        <v>-0.7216375422</v>
+        <v>0.2090873907</v>
       </c>
       <c r="Z14" s="54" t="n">
-        <v>-10319.922</v>
+        <v>702.312</v>
       </c>
       <c r="AA14" s="54" t="n">
-        <v>3980.988</v>
+        <v>4061.412</v>
       </c>
       <c r="AB14" s="55" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AC14" s="54" t="n"/>
       <c r="AD14" s="47" t="inlineStr">
@@ -2030,36 +1978,88 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="56" t="n"/>
-      <c r="B15" s="56" t="n"/>
-      <c r="C15" s="56" t="n"/>
-      <c r="D15" s="56" t="n"/>
-      <c r="E15" s="57" t="n"/>
-      <c r="F15" s="57" t="n"/>
-      <c r="G15" s="58" t="n"/>
-      <c r="H15" s="57" t="n"/>
-      <c r="I15" s="56" t="n"/>
-      <c r="J15" s="57" t="n"/>
-      <c r="K15" s="57" t="n"/>
-      <c r="L15" s="57" t="n"/>
-      <c r="M15" s="2" t="n"/>
-      <c r="N15" s="56" t="n"/>
-      <c r="O15" s="56" t="n"/>
-      <c r="P15" s="56" t="n"/>
-      <c r="Q15" s="56" t="n"/>
-      <c r="R15" s="56" t="n"/>
-      <c r="S15" s="56" t="n"/>
-      <c r="T15" s="56" t="n"/>
-      <c r="U15" s="56" t="n"/>
-      <c r="V15" s="56" t="n"/>
-      <c r="W15" s="57" t="n"/>
-      <c r="X15" s="57" t="n"/>
-      <c r="Y15" s="57" t="n"/>
-      <c r="Z15" s="57" t="n"/>
-      <c r="AA15" s="57" t="n"/>
-      <c r="AB15" s="57" t="n"/>
-      <c r="AC15" s="57" t="n"/>
-      <c r="AD15" s="56" t="n"/>
+      <c r="A15" s="43" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B15" s="44" t="inlineStr">
+        <is>
+          <t>MRGR</t>
+        </is>
+      </c>
+      <c r="C15" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D15" s="45" t="n">
+        <v>99</v>
+      </c>
+      <c r="E15" s="46" t="n">
+        <v>143.44</v>
+      </c>
+      <c r="F15" s="46" t="n">
+        <v>14200.35</v>
+      </c>
+      <c r="G15" s="44" t="inlineStr">
+        <is>
+          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+        </is>
+      </c>
+      <c r="H15" s="46" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" s="45" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="J15" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K15" s="54" t="n"/>
+      <c r="L15" s="54">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="51">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O15" s="52" t="n"/>
+      <c r="P15" s="54" t="n"/>
+      <c r="Q15" s="50" t="n"/>
+      <c r="R15" s="50" t="n"/>
+      <c r="S15" s="53" t="n"/>
+      <c r="T15" s="53" t="n"/>
+      <c r="U15" s="53" t="n"/>
+      <c r="V15" s="53" t="n"/>
+      <c r="W15" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X15" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y15" s="39" t="n">
+        <v>-0.7216375422</v>
+      </c>
+      <c r="Z15" s="54" t="n">
+        <v>-10319.922</v>
+      </c>
+      <c r="AA15" s="54" t="n">
+        <v>3980.988</v>
+      </c>
+      <c r="AB15" s="55" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC15" s="54" t="n"/>
+      <c r="AD15" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="56" t="n"/>
@@ -33530,7 +33530,7 @@
       <c r="J999" s="57" t="n"/>
       <c r="K999" s="57" t="n"/>
       <c r="L999" s="57" t="n"/>
-      <c r="M999" s="56" t="n"/>
+      <c r="M999" s="2" t="n"/>
       <c r="N999" s="56" t="n"/>
       <c r="O999" s="56" t="n"/>
       <c r="P999" s="56" t="n"/>
@@ -34060,6 +34060,38 @@
       <c r="AB1015" s="57" t="n"/>
       <c r="AC1015" s="57" t="n"/>
       <c r="AD1015" s="56" t="n"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="56" t="n"/>
+      <c r="B1016" s="56" t="n"/>
+      <c r="C1016" s="56" t="n"/>
+      <c r="D1016" s="56" t="n"/>
+      <c r="E1016" s="57" t="n"/>
+      <c r="F1016" s="57" t="n"/>
+      <c r="G1016" s="58" t="n"/>
+      <c r="H1016" s="57" t="n"/>
+      <c r="I1016" s="56" t="n"/>
+      <c r="J1016" s="57" t="n"/>
+      <c r="K1016" s="57" t="n"/>
+      <c r="L1016" s="57" t="n"/>
+      <c r="M1016" s="56" t="n"/>
+      <c r="N1016" s="56" t="n"/>
+      <c r="O1016" s="56" t="n"/>
+      <c r="P1016" s="56" t="n"/>
+      <c r="Q1016" s="56" t="n"/>
+      <c r="R1016" s="56" t="n"/>
+      <c r="S1016" s="56" t="n"/>
+      <c r="T1016" s="56" t="n"/>
+      <c r="U1016" s="56" t="n"/>
+      <c r="V1016" s="56" t="n"/>
+      <c r="W1016" s="57" t="n"/>
+      <c r="X1016" s="57" t="n"/>
+      <c r="Y1016" s="57" t="n"/>
+      <c r="Z1016" s="57" t="n"/>
+      <c r="AA1016" s="57" t="n"/>
+      <c r="AB1016" s="57" t="n"/>
+      <c r="AC1016" s="57" t="n"/>
+      <c r="AD1016" s="56" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$4:$AO$92"/>

--- a/dumps/Stocks/SBI ETF Gold.xlsx
+++ b/dumps/Stocks/SBI ETF Gold.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1016"/>
+  <dimension ref="A1:AP1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1108,39 +1108,43 @@
     </row>
     <row r="5">
       <c r="A5" s="93" t="n">
-        <v>46063</v>
+        <v>45974</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>131.5987</v>
+        <v>108.032</v>
       </c>
       <c r="F5" t="n">
-        <v>52639.48</v>
+        <v>3260.96</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>25.99</v>
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="93" t="n">
-        <v>46062</v>
+        <v>45972</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1149,753 +1153,343 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>106.14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>4265.6</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>CN#252608021091</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="93" t="n">
+        <v>45971</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>104.73</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>3161.9</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607962278</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J7" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="93" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>103.19</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4147.6</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607606298</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="93" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>101.8006</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>5110.03</v>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607551490</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="93" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="93" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D11" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>131.5987</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>52639.48</v>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="93" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>132.0378</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>66018.89999999999</v>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="31" t="n">
+    <row r="13">
+      <c r="A13" s="31" t="n">
         <v>45863</v>
       </c>
-      <c r="B7" s="32" t="inlineStr">
+      <c r="B13" s="32" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C7" s="32" t="inlineStr">
+      <c r="C13" s="32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D13" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E13" s="34" t="n">
         <v>4.75</v>
       </c>
-      <c r="F7" s="34" t="n">
+      <c r="F13" s="34" t="n">
         <v>475</v>
       </c>
-      <c r="G7" s="32" t="inlineStr">
+      <c r="G13" s="32" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.4.7500/- per share on Ex-Date: 25-JUL-2025</t>
         </is>
       </c>
-      <c r="H7" s="34" t="n">
+      <c r="H13" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="I13" s="33" t="n">
         <v>0</v>
-      </c>
-      <c r="J7" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K7" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L7" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M7" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N7" s="38">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O7" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P7" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R7" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S7" s="39">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T7" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U7" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V7" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W7" s="40" t="n"/>
-      <c r="X7" s="40" t="n"/>
-      <c r="Y7" s="39">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="40" t="n"/>
-      <c r="AA7" s="40" t="n"/>
-      <c r="AB7" s="41" t="n"/>
-      <c r="AC7" s="37">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD7" s="42" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="43" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B8" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C8" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D8" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E8" s="46" t="n">
-        <v>114.17</v>
-      </c>
-      <c r="F8" s="46" t="n">
-        <v>6850.01</v>
-      </c>
-      <c r="G8" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H8" s="46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I8" s="45" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="J8" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K8" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L8" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M8" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N8" s="38">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O8" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P8" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R8" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S8" s="39">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T8" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U8" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V8" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W8" s="40" t="n"/>
-      <c r="X8" s="40" t="n"/>
-      <c r="Y8" s="39">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z8" s="40" t="n"/>
-      <c r="AA8" s="40" t="n"/>
-      <c r="AB8" s="41" t="n"/>
-      <c r="AC8" s="37">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD8" s="42" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="43" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B9" s="44" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C9" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D9" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E9" s="46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F9" s="46" t="n">
-        <v>144</v>
-      </c>
-      <c r="G9" s="44" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
-        </is>
-      </c>
-      <c r="H9" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K9" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="L9" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="M9" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
-        <v/>
-      </c>
-      <c r="N9" s="38">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
-        <v/>
-      </c>
-      <c r="O9" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="P9" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
-        <v/>
-      </c>
-      <c r="R9" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="S9" s="39">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="T9" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v/>
-      </c>
-      <c r="U9" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
-        <v/>
-      </c>
-      <c r="V9" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
-        <v/>
-      </c>
-      <c r="W9" s="40" t="n"/>
-      <c r="X9" s="40" t="n"/>
-      <c r="Y9" s="39">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="40" t="n"/>
-      <c r="AA9" s="40" t="n"/>
-      <c r="AB9" s="41" t="n"/>
-      <c r="AC9" s="37">
-        <f>if(B7="DIV", F7,"")</f>
-        <v/>
-      </c>
-      <c r="AD9" s="42" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="43" t="n">
-        <v>45282</v>
-      </c>
-      <c r="B10" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C10" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D10" s="45" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="46" t="n">
-        <v>117.99</v>
-      </c>
-      <c r="F10" s="46" t="n">
-        <v>2359.71</v>
-      </c>
-      <c r="G10" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H10" s="46" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I10" s="45" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="J10" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K10" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="L10" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="M10" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
-        <v/>
-      </c>
-      <c r="N10" s="38">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
-        <v/>
-      </c>
-      <c r="O10" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="P10" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
-        <v/>
-      </c>
-      <c r="R10" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="S10" s="39">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="T10" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
-        <v/>
-      </c>
-      <c r="U10" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
-        <v/>
-      </c>
-      <c r="V10" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
-        <v/>
-      </c>
-      <c r="W10" s="40" t="n"/>
-      <c r="X10" s="40" t="n"/>
-      <c r="Y10" s="39">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="40" t="n"/>
-      <c r="AA10" s="40" t="n"/>
-      <c r="AB10" s="41" t="n"/>
-      <c r="AC10" s="37">
-        <f>if(B8="DIV", F8,"")</f>
-        <v/>
-      </c>
-      <c r="AD10" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="43" t="n">
-        <v>45278</v>
-      </c>
-      <c r="B11" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C11" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="E11" s="46" t="n">
-        <v>125.73</v>
-      </c>
-      <c r="F11" s="46" t="n">
-        <v>1257.3</v>
-      </c>
-      <c r="G11" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H11" s="46" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I11" s="45" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="J11" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K11" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="L11" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
-        <v/>
-      </c>
-      <c r="N11" s="38">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
-        <v/>
-      </c>
-      <c r="O11" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="P11" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
-        <v/>
-      </c>
-      <c r="R11" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="S11" s="39">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="T11" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v/>
-      </c>
-      <c r="U11" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
-        <v/>
-      </c>
-      <c r="V11" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
-        <v/>
-      </c>
-      <c r="W11" s="40" t="n"/>
-      <c r="X11" s="40" t="n"/>
-      <c r="Y11" s="39">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="40" t="n"/>
-      <c r="AA11" s="40" t="n"/>
-      <c r="AB11" s="41" t="n"/>
-      <c r="AC11" s="37">
-        <f>if(B9="DIV", F9,"")</f>
-        <v/>
-      </c>
-      <c r="AD11" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="43" t="n">
-        <v>45258</v>
-      </c>
-      <c r="B12" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C12" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D12" s="45" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="46" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="F12" s="46" t="n">
-        <v>1077.03</v>
-      </c>
-      <c r="G12" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H12" s="46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I12" s="45" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="J12" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K12" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="L12" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="M12" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
-        <v/>
-      </c>
-      <c r="N12" s="38">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
-        <v/>
-      </c>
-      <c r="O12" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="P12" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
-        <v/>
-      </c>
-      <c r="R12" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="S12" s="39">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="T12" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v/>
-      </c>
-      <c r="U12" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
-        <v/>
-      </c>
-      <c r="V12" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
-        <v/>
-      </c>
-      <c r="W12" s="40" t="n"/>
-      <c r="X12" s="40" t="n"/>
-      <c r="Y12" s="39">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
-        <v/>
-      </c>
-      <c r="Z12" s="40" t="n"/>
-      <c r="AA12" s="40" t="n"/>
-      <c r="AB12" s="41" t="n"/>
-      <c r="AC12" s="37">
-        <f>if(B10="DIV", F10,"")</f>
-        <v/>
-      </c>
-      <c r="AD12" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="48" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>200</v>
-      </c>
-      <c r="E13" s="46" t="n">
-        <v>40.49</v>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>8097.1</v>
-      </c>
-      <c r="G13" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H13" s="46" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="I13" s="45" t="n">
-        <v>47.47</v>
       </c>
       <c r="J13" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K13" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L13" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M13" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N13" s="38">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O13" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P13" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q13" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R13" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S13" s="39">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T13" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U13" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V13" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W13" s="40" t="n"/>
       <c r="X13" s="40" t="n"/>
       <c r="Y13" s="39">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z13" s="40" t="n"/>
       <c r="AA13" s="40" t="n"/>
       <c r="AB13" s="41" t="n"/>
       <c r="AC13" s="37">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
-      <c r="AD13" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD13" s="42" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="n">
-        <v>44021</v>
+      <c r="A14" s="43" t="n">
+        <v>45699</v>
       </c>
       <c r="B14" s="44" t="inlineStr">
         <is>
@@ -1908,13 +1502,13 @@
         </is>
       </c>
       <c r="D14" s="45" t="n">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E14" s="46" t="n">
-        <v>33.03</v>
+        <v>114.17</v>
       </c>
       <c r="F14" s="46" t="n">
-        <v>3335.87</v>
+        <v>6850.01</v>
       </c>
       <c r="G14" s="44" t="inlineStr">
         <is>
@@ -1922,68 +1516,85 @@
         </is>
       </c>
       <c r="H14" s="46" t="n">
-        <v>3.36</v>
+        <v>6.78</v>
       </c>
       <c r="I14" s="45" t="n">
-        <v>19.71</v>
+        <v>41.63</v>
       </c>
       <c r="J14" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K14" s="54" t="n"/>
-      <c r="L14" s="54">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+      <c r="K14" s="36">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
-      <c r="M14" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+      <c r="L14" s="37">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
-      <c r="N14" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M14" s="37">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
-      <c r="O14" s="52" t="n"/>
-      <c r="P14" s="54" t="n"/>
-      <c r="Q14" s="50" t="n"/>
-      <c r="R14" s="50" t="n"/>
-      <c r="S14" s="53" t="n"/>
-      <c r="T14" s="53" t="n"/>
-      <c r="U14" s="53" t="n"/>
-      <c r="V14" s="53" t="n"/>
-      <c r="W14" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X14" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y14" s="39" t="n">
-        <v>0.2090873907</v>
-      </c>
-      <c r="Z14" s="54" t="n">
-        <v>702.312</v>
-      </c>
-      <c r="AA14" s="54" t="n">
-        <v>4061.412</v>
-      </c>
-      <c r="AB14" s="55" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC14" s="54" t="n"/>
-      <c r="AD14" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="N14" s="38">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <v/>
+      </c>
+      <c r="O14" s="36">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="P14" s="37">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="37">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <v/>
+      </c>
+      <c r="R14" s="37">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <v/>
+      </c>
+      <c r="S14" s="39">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="T14" s="40">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <v/>
+      </c>
+      <c r="U14" s="40">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <v/>
+      </c>
+      <c r="V14" s="40">
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <v/>
+      </c>
+      <c r="W14" s="40" t="n"/>
+      <c r="X14" s="40" t="n"/>
+      <c r="Y14" s="39">
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="40" t="n"/>
+      <c r="AA14" s="40" t="n"/>
+      <c r="AB14" s="41" t="n"/>
+      <c r="AC14" s="37">
+        <f>if(B6="DIV", F6,"")</f>
+        <v/>
+      </c>
+      <c r="AD14" s="42" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="43" t="n">
-        <v>43910</v>
+        <v>45492</v>
       </c>
       <c r="B15" s="44" t="inlineStr">
         <is>
-          <t>MRGR</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C15" s="44" t="inlineStr">
@@ -1992,266 +1603,679 @@
         </is>
       </c>
       <c r="D15" s="45" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" s="46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F15" s="46" t="n">
+        <v>144</v>
+      </c>
+      <c r="G15" s="44" t="inlineStr">
+        <is>
+          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
+        </is>
+      </c>
+      <c r="H15" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K15" s="36">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="L15" s="37">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="M15" s="37">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <v/>
+      </c>
+      <c r="N15" s="38">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <v/>
+      </c>
+      <c r="O15" s="36">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="P15" s="37">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="37">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <v/>
+      </c>
+      <c r="R15" s="37">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="S15" s="39">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="T15" s="40">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <v/>
+      </c>
+      <c r="U15" s="40">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <v/>
+      </c>
+      <c r="V15" s="40">
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <v/>
+      </c>
+      <c r="W15" s="40" t="n"/>
+      <c r="X15" s="40" t="n"/>
+      <c r="Y15" s="39">
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <v/>
+      </c>
+      <c r="Z15" s="40" t="n"/>
+      <c r="AA15" s="40" t="n"/>
+      <c r="AB15" s="41" t="n"/>
+      <c r="AC15" s="37">
+        <f>if(B7="DIV", F7,"")</f>
+        <v/>
+      </c>
+      <c r="AD15" s="42" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="43" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B16" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C16" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D16" s="45" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="46" t="n">
+        <v>117.99</v>
+      </c>
+      <c r="F16" s="46" t="n">
+        <v>2359.71</v>
+      </c>
+      <c r="G16" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H16" s="46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I16" s="45" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="J16" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K16" s="36">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="L16" s="37">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="M16" s="37">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <v/>
+      </c>
+      <c r="N16" s="38">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <v/>
+      </c>
+      <c r="O16" s="36">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="P16" s="37">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="37">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <v/>
+      </c>
+      <c r="R16" s="37">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="S16" s="39">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="T16" s="40">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <v/>
+      </c>
+      <c r="U16" s="40">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <v/>
+      </c>
+      <c r="V16" s="40">
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <v/>
+      </c>
+      <c r="W16" s="40" t="n"/>
+      <c r="X16" s="40" t="n"/>
+      <c r="Y16" s="39">
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <v/>
+      </c>
+      <c r="Z16" s="40" t="n"/>
+      <c r="AA16" s="40" t="n"/>
+      <c r="AB16" s="41" t="n"/>
+      <c r="AC16" s="37">
+        <f>if(B8="DIV", F8,"")</f>
+        <v/>
+      </c>
+      <c r="AD16" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="43" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B17" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C17" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D17" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="46" t="n">
+        <v>125.73</v>
+      </c>
+      <c r="F17" s="46" t="n">
+        <v>1257.3</v>
+      </c>
+      <c r="G17" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H17" s="46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I17" s="45" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="J17" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K17" s="36">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="L17" s="37">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="M17" s="37">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <v/>
+      </c>
+      <c r="N17" s="38">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <v/>
+      </c>
+      <c r="O17" s="36">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="P17" s="37">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="37">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <v/>
+      </c>
+      <c r="R17" s="37">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="S17" s="39">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="T17" s="40">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <v/>
+      </c>
+      <c r="U17" s="40">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <v/>
+      </c>
+      <c r="V17" s="40">
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <v/>
+      </c>
+      <c r="W17" s="40" t="n"/>
+      <c r="X17" s="40" t="n"/>
+      <c r="Y17" s="39">
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="40" t="n"/>
+      <c r="AA17" s="40" t="n"/>
+      <c r="AB17" s="41" t="n"/>
+      <c r="AC17" s="37">
+        <f>if(B9="DIV", F9,"")</f>
+        <v/>
+      </c>
+      <c r="AD17" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="43" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B18" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C18" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="46" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F18" s="46" t="n">
+        <v>1077.03</v>
+      </c>
+      <c r="G18" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H18" s="46" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I18" s="45" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="J18" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K18" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="L18" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="M18" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <v/>
+      </c>
+      <c r="N18" s="38">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O18" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P18" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R18" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S18" s="39">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T18" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U18" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V18" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W18" s="40" t="n"/>
+      <c r="X18" s="40" t="n"/>
+      <c r="Y18" s="39">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="40" t="n"/>
+      <c r="AA18" s="40" t="n"/>
+      <c r="AB18" s="41" t="n"/>
+      <c r="AC18" s="37">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
+      <c r="AD18" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="48" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B19" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C19" s="44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D19" s="45" t="n">
+        <v>200</v>
+      </c>
+      <c r="E19" s="46" t="n">
+        <v>40.49</v>
+      </c>
+      <c r="F19" s="46" t="n">
+        <v>8097.1</v>
+      </c>
+      <c r="G19" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H19" s="46" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="I19" s="45" t="n">
+        <v>47.47</v>
+      </c>
+      <c r="J19" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K19" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="L19" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="M19" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <v/>
+      </c>
+      <c r="N19" s="38">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O19" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P19" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R19" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S19" s="39">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T19" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U19" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V19" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W19" s="40" t="n"/>
+      <c r="X19" s="40" t="n"/>
+      <c r="Y19" s="39">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z19" s="40" t="n"/>
+      <c r="AA19" s="40" t="n"/>
+      <c r="AB19" s="41" t="n"/>
+      <c r="AC19" s="37">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
+      <c r="AD19" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="48" t="n">
+        <v>44021</v>
+      </c>
+      <c r="B20" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C20" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D20" s="45" t="n">
+        <v>101</v>
+      </c>
+      <c r="E20" s="46" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="F20" s="46" t="n">
+        <v>3335.87</v>
+      </c>
+      <c r="G20" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H20" s="46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I20" s="45" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="J20" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K20" s="54" t="n"/>
+      <c r="L20" s="54">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+        <v/>
+      </c>
+      <c r="M20" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+        <v/>
+      </c>
+      <c r="N20" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O20" s="52" t="n"/>
+      <c r="P20" s="54" t="n"/>
+      <c r="Q20" s="50" t="n"/>
+      <c r="R20" s="50" t="n"/>
+      <c r="S20" s="53" t="n"/>
+      <c r="T20" s="53" t="n"/>
+      <c r="U20" s="53" t="n"/>
+      <c r="V20" s="53" t="n"/>
+      <c r="W20" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X20" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y20" s="39" t="n">
+        <v>0.2090873907</v>
+      </c>
+      <c r="Z20" s="54" t="n">
+        <v>702.312</v>
+      </c>
+      <c r="AA20" s="54" t="n">
+        <v>4061.412</v>
+      </c>
+      <c r="AB20" s="55" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC20" s="54" t="n"/>
+      <c r="AD20" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="43" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B21" s="44" t="inlineStr">
+        <is>
+          <t>MRGR</t>
+        </is>
+      </c>
+      <c r="C21" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" s="45" t="n">
         <v>99</v>
       </c>
-      <c r="E15" s="46" t="n">
+      <c r="E21" s="46" t="n">
         <v>143.44</v>
       </c>
-      <c r="F15" s="46" t="n">
+      <c r="F21" s="46" t="n">
         <v>14200.35</v>
       </c>
-      <c r="G15" s="44" t="inlineStr">
+      <c r="G21" s="44" t="inlineStr">
         <is>
           <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
         </is>
       </c>
-      <c r="H15" s="46" t="n">
+      <c r="H21" s="46" t="n">
         <v>14</v>
       </c>
-      <c r="I15" s="45" t="n">
+      <c r="I21" s="45" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J21" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K15" s="54" t="n"/>
-      <c r="L15" s="54">
+      <c r="K21" s="54" t="n"/>
+      <c r="L21" s="54">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
         <v/>
       </c>
-      <c r="M15" s="50">
+      <c r="M21" s="50">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
         <v/>
       </c>
-      <c r="N15" s="51">
+      <c r="N21" s="51">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
-      <c r="O15" s="52" t="n"/>
-      <c r="P15" s="54" t="n"/>
-      <c r="Q15" s="50" t="n"/>
-      <c r="R15" s="50" t="n"/>
-      <c r="S15" s="53" t="n"/>
-      <c r="T15" s="53" t="n"/>
-      <c r="U15" s="53" t="n"/>
-      <c r="V15" s="53" t="n"/>
-      <c r="W15" s="54" t="n">
+      <c r="O21" s="52" t="n"/>
+      <c r="P21" s="54" t="n"/>
+      <c r="Q21" s="50" t="n"/>
+      <c r="R21" s="50" t="n"/>
+      <c r="S21" s="53" t="n"/>
+      <c r="T21" s="53" t="n"/>
+      <c r="U21" s="53" t="n"/>
+      <c r="V21" s="53" t="n"/>
+      <c r="W21" s="54" t="n">
         <v>40.212</v>
       </c>
-      <c r="X15" s="54" t="n">
+      <c r="X21" s="54" t="n">
         <v>44257</v>
       </c>
-      <c r="Y15" s="39" t="n">
+      <c r="Y21" s="39" t="n">
         <v>-0.7216375422</v>
       </c>
-      <c r="Z15" s="54" t="n">
+      <c r="Z21" s="54" t="n">
         <v>-10319.922</v>
       </c>
-      <c r="AA15" s="54" t="n">
+      <c r="AA21" s="54" t="n">
         <v>3980.988</v>
       </c>
-      <c r="AB15" s="55" t="n">
+      <c r="AB21" s="55" t="n">
         <v>99</v>
       </c>
-      <c r="AC15" s="54" t="n"/>
-      <c r="AD15" s="47" t="inlineStr">
+      <c r="AC21" s="54" t="n"/>
+      <c r="AD21" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="56" t="n"/>
-      <c r="B16" s="56" t="n"/>
-      <c r="C16" s="56" t="n"/>
-      <c r="D16" s="56" t="n"/>
-      <c r="E16" s="57" t="n"/>
-      <c r="F16" s="57" t="n"/>
-      <c r="G16" s="58" t="n"/>
-      <c r="H16" s="57" t="n"/>
-      <c r="I16" s="56" t="n"/>
-      <c r="J16" s="57" t="n"/>
-      <c r="K16" s="57" t="n"/>
-      <c r="L16" s="57" t="n"/>
-      <c r="M16" s="2" t="n"/>
-      <c r="N16" s="56" t="n"/>
-      <c r="O16" s="56" t="n"/>
-      <c r="P16" s="56" t="n"/>
-      <c r="Q16" s="56" t="n"/>
-      <c r="R16" s="56" t="n"/>
-      <c r="S16" s="56" t="n"/>
-      <c r="T16" s="56" t="n"/>
-      <c r="U16" s="56" t="n"/>
-      <c r="V16" s="56" t="n"/>
-      <c r="W16" s="57" t="n"/>
-      <c r="X16" s="57" t="n"/>
-      <c r="Y16" s="57" t="n"/>
-      <c r="Z16" s="57" t="n"/>
-      <c r="AA16" s="57" t="n"/>
-      <c r="AB16" s="57" t="n"/>
-      <c r="AC16" s="57" t="n"/>
-      <c r="AD16" s="56" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="56" t="n"/>
-      <c r="B17" s="56" t="n"/>
-      <c r="C17" s="56" t="n"/>
-      <c r="D17" s="56" t="n"/>
-      <c r="E17" s="57" t="n"/>
-      <c r="F17" s="57" t="n"/>
-      <c r="G17" s="58" t="n"/>
-      <c r="H17" s="57" t="n"/>
-      <c r="I17" s="56" t="n"/>
-      <c r="J17" s="57" t="n"/>
-      <c r="K17" s="57" t="n"/>
-      <c r="L17" s="57" t="n"/>
-      <c r="M17" s="2" t="n"/>
-      <c r="N17" s="56" t="n"/>
-      <c r="O17" s="56" t="n"/>
-      <c r="P17" s="56" t="n"/>
-      <c r="Q17" s="56" t="n"/>
-      <c r="R17" s="56" t="n"/>
-      <c r="S17" s="56" t="n"/>
-      <c r="T17" s="56" t="n"/>
-      <c r="U17" s="56" t="n"/>
-      <c r="V17" s="56" t="n"/>
-      <c r="W17" s="57" t="n"/>
-      <c r="X17" s="57" t="n"/>
-      <c r="Y17" s="57" t="n"/>
-      <c r="Z17" s="57" t="n"/>
-      <c r="AA17" s="57" t="n"/>
-      <c r="AB17" s="57" t="n"/>
-      <c r="AC17" s="57" t="n"/>
-      <c r="AD17" s="56" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="56" t="n"/>
-      <c r="B18" s="56" t="n"/>
-      <c r="C18" s="56" t="n"/>
-      <c r="D18" s="56" t="n"/>
-      <c r="E18" s="57" t="n"/>
-      <c r="F18" s="57" t="n"/>
-      <c r="G18" s="58" t="n"/>
-      <c r="H18" s="57" t="n"/>
-      <c r="I18" s="56" t="n"/>
-      <c r="J18" s="57" t="n"/>
-      <c r="K18" s="57" t="n"/>
-      <c r="L18" s="57" t="n"/>
-      <c r="M18" s="2" t="n"/>
-      <c r="N18" s="56" t="n"/>
-      <c r="O18" s="56" t="n"/>
-      <c r="P18" s="56" t="n"/>
-      <c r="Q18" s="56" t="n"/>
-      <c r="R18" s="56" t="n"/>
-      <c r="S18" s="56" t="n"/>
-      <c r="T18" s="56" t="n"/>
-      <c r="U18" s="56" t="n"/>
-      <c r="V18" s="56" t="n"/>
-      <c r="W18" s="57" t="n"/>
-      <c r="X18" s="57" t="n"/>
-      <c r="Y18" s="57" t="n"/>
-      <c r="Z18" s="57" t="n"/>
-      <c r="AA18" s="57" t="n"/>
-      <c r="AB18" s="57" t="n"/>
-      <c r="AC18" s="57" t="n"/>
-      <c r="AD18" s="56" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="56" t="n"/>
-      <c r="B19" s="56" t="n"/>
-      <c r="C19" s="56" t="n"/>
-      <c r="D19" s="56" t="n"/>
-      <c r="E19" s="57" t="n"/>
-      <c r="F19" s="57" t="n"/>
-      <c r="G19" s="58" t="n"/>
-      <c r="H19" s="57" t="n"/>
-      <c r="I19" s="56" t="n"/>
-      <c r="J19" s="57" t="n"/>
-      <c r="K19" s="57" t="n"/>
-      <c r="L19" s="57" t="n"/>
-      <c r="M19" s="2" t="n"/>
-      <c r="N19" s="56" t="n"/>
-      <c r="O19" s="56" t="n"/>
-      <c r="P19" s="56" t="n"/>
-      <c r="Q19" s="56" t="n"/>
-      <c r="R19" s="56" t="n"/>
-      <c r="S19" s="56" t="n"/>
-      <c r="T19" s="56" t="n"/>
-      <c r="U19" s="56" t="n"/>
-      <c r="V19" s="56" t="n"/>
-      <c r="W19" s="57" t="n"/>
-      <c r="X19" s="57" t="n"/>
-      <c r="Y19" s="57" t="n"/>
-      <c r="Z19" s="57" t="n"/>
-      <c r="AA19" s="57" t="n"/>
-      <c r="AB19" s="57" t="n"/>
-      <c r="AC19" s="57" t="n"/>
-      <c r="AD19" s="56" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="56" t="n"/>
-      <c r="B20" s="56" t="n"/>
-      <c r="C20" s="56" t="n"/>
-      <c r="D20" s="56" t="n"/>
-      <c r="E20" s="57" t="n"/>
-      <c r="F20" s="57" t="n"/>
-      <c r="G20" s="58" t="n"/>
-      <c r="H20" s="57" t="n"/>
-      <c r="I20" s="56" t="n"/>
-      <c r="J20" s="57" t="n"/>
-      <c r="K20" s="57" t="n"/>
-      <c r="L20" s="57" t="n"/>
-      <c r="M20" s="2" t="n"/>
-      <c r="N20" s="56" t="n"/>
-      <c r="O20" s="56" t="n"/>
-      <c r="P20" s="56" t="n"/>
-      <c r="Q20" s="56" t="n"/>
-      <c r="R20" s="56" t="n"/>
-      <c r="S20" s="56" t="n"/>
-      <c r="T20" s="56" t="n"/>
-      <c r="U20" s="56" t="n"/>
-      <c r="V20" s="56" t="n"/>
-      <c r="W20" s="57" t="n"/>
-      <c r="X20" s="57" t="n"/>
-      <c r="Y20" s="57" t="n"/>
-      <c r="Z20" s="57" t="n"/>
-      <c r="AA20" s="57" t="n"/>
-      <c r="AB20" s="57" t="n"/>
-      <c r="AC20" s="57" t="n"/>
-      <c r="AD20" s="56" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="56" t="n"/>
-      <c r="B21" s="56" t="n"/>
-      <c r="C21" s="56" t="n"/>
-      <c r="D21" s="56" t="n"/>
-      <c r="E21" s="57" t="n"/>
-      <c r="F21" s="57" t="n"/>
-      <c r="G21" s="58" t="n"/>
-      <c r="H21" s="57" t="n"/>
-      <c r="I21" s="56" t="n"/>
-      <c r="J21" s="57" t="n"/>
-      <c r="K21" s="57" t="n"/>
-      <c r="L21" s="57" t="n"/>
-      <c r="M21" s="2" t="n"/>
-      <c r="N21" s="56" t="n"/>
-      <c r="O21" s="56" t="n"/>
-      <c r="P21" s="56" t="n"/>
-      <c r="Q21" s="56" t="n"/>
-      <c r="R21" s="56" t="n"/>
-      <c r="S21" s="56" t="n"/>
-      <c r="T21" s="56" t="n"/>
-      <c r="U21" s="56" t="n"/>
-      <c r="V21" s="56" t="n"/>
-      <c r="W21" s="57" t="n"/>
-      <c r="X21" s="57" t="n"/>
-      <c r="Y21" s="57" t="n"/>
-      <c r="Z21" s="57" t="n"/>
-      <c r="AA21" s="57" t="n"/>
-      <c r="AB21" s="57" t="n"/>
-      <c r="AC21" s="57" t="n"/>
-      <c r="AD21" s="56" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="56" t="n"/>
@@ -33562,7 +33586,7 @@
       <c r="J1000" s="57" t="n"/>
       <c r="K1000" s="57" t="n"/>
       <c r="L1000" s="57" t="n"/>
-      <c r="M1000" s="56" t="n"/>
+      <c r="M1000" s="2" t="n"/>
       <c r="N1000" s="56" t="n"/>
       <c r="O1000" s="56" t="n"/>
       <c r="P1000" s="56" t="n"/>
@@ -33594,7 +33618,7 @@
       <c r="J1001" s="57" t="n"/>
       <c r="K1001" s="57" t="n"/>
       <c r="L1001" s="57" t="n"/>
-      <c r="M1001" s="56" t="n"/>
+      <c r="M1001" s="2" t="n"/>
       <c r="N1001" s="56" t="n"/>
       <c r="O1001" s="56" t="n"/>
       <c r="P1001" s="56" t="n"/>
@@ -33626,7 +33650,7 @@
       <c r="J1002" s="57" t="n"/>
       <c r="K1002" s="57" t="n"/>
       <c r="L1002" s="57" t="n"/>
-      <c r="M1002" s="56" t="n"/>
+      <c r="M1002" s="2" t="n"/>
       <c r="N1002" s="56" t="n"/>
       <c r="O1002" s="56" t="n"/>
       <c r="P1002" s="56" t="n"/>
@@ -33658,7 +33682,7 @@
       <c r="J1003" s="57" t="n"/>
       <c r="K1003" s="57" t="n"/>
       <c r="L1003" s="57" t="n"/>
-      <c r="M1003" s="56" t="n"/>
+      <c r="M1003" s="2" t="n"/>
       <c r="N1003" s="56" t="n"/>
       <c r="O1003" s="56" t="n"/>
       <c r="P1003" s="56" t="n"/>
@@ -33690,7 +33714,7 @@
       <c r="J1004" s="57" t="n"/>
       <c r="K1004" s="57" t="n"/>
       <c r="L1004" s="57" t="n"/>
-      <c r="M1004" s="56" t="n"/>
+      <c r="M1004" s="2" t="n"/>
       <c r="N1004" s="56" t="n"/>
       <c r="O1004" s="56" t="n"/>
       <c r="P1004" s="56" t="n"/>
@@ -33722,7 +33746,7 @@
       <c r="J1005" s="57" t="n"/>
       <c r="K1005" s="57" t="n"/>
       <c r="L1005" s="57" t="n"/>
-      <c r="M1005" s="56" t="n"/>
+      <c r="M1005" s="2" t="n"/>
       <c r="N1005" s="56" t="n"/>
       <c r="O1005" s="56" t="n"/>
       <c r="P1005" s="56" t="n"/>
@@ -34092,6 +34116,198 @@
       <c r="AB1016" s="57" t="n"/>
       <c r="AC1016" s="57" t="n"/>
       <c r="AD1016" s="56" t="n"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="56" t="n"/>
+      <c r="B1017" s="56" t="n"/>
+      <c r="C1017" s="56" t="n"/>
+      <c r="D1017" s="56" t="n"/>
+      <c r="E1017" s="57" t="n"/>
+      <c r="F1017" s="57" t="n"/>
+      <c r="G1017" s="58" t="n"/>
+      <c r="H1017" s="57" t="n"/>
+      <c r="I1017" s="56" t="n"/>
+      <c r="J1017" s="57" t="n"/>
+      <c r="K1017" s="57" t="n"/>
+      <c r="L1017" s="57" t="n"/>
+      <c r="M1017" s="56" t="n"/>
+      <c r="N1017" s="56" t="n"/>
+      <c r="O1017" s="56" t="n"/>
+      <c r="P1017" s="56" t="n"/>
+      <c r="Q1017" s="56" t="n"/>
+      <c r="R1017" s="56" t="n"/>
+      <c r="S1017" s="56" t="n"/>
+      <c r="T1017" s="56" t="n"/>
+      <c r="U1017" s="56" t="n"/>
+      <c r="V1017" s="56" t="n"/>
+      <c r="W1017" s="57" t="n"/>
+      <c r="X1017" s="57" t="n"/>
+      <c r="Y1017" s="57" t="n"/>
+      <c r="Z1017" s="57" t="n"/>
+      <c r="AA1017" s="57" t="n"/>
+      <c r="AB1017" s="57" t="n"/>
+      <c r="AC1017" s="57" t="n"/>
+      <c r="AD1017" s="56" t="n"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="56" t="n"/>
+      <c r="B1018" s="56" t="n"/>
+      <c r="C1018" s="56" t="n"/>
+      <c r="D1018" s="56" t="n"/>
+      <c r="E1018" s="57" t="n"/>
+      <c r="F1018" s="57" t="n"/>
+      <c r="G1018" s="58" t="n"/>
+      <c r="H1018" s="57" t="n"/>
+      <c r="I1018" s="56" t="n"/>
+      <c r="J1018" s="57" t="n"/>
+      <c r="K1018" s="57" t="n"/>
+      <c r="L1018" s="57" t="n"/>
+      <c r="M1018" s="56" t="n"/>
+      <c r="N1018" s="56" t="n"/>
+      <c r="O1018" s="56" t="n"/>
+      <c r="P1018" s="56" t="n"/>
+      <c r="Q1018" s="56" t="n"/>
+      <c r="R1018" s="56" t="n"/>
+      <c r="S1018" s="56" t="n"/>
+      <c r="T1018" s="56" t="n"/>
+      <c r="U1018" s="56" t="n"/>
+      <c r="V1018" s="56" t="n"/>
+      <c r="W1018" s="57" t="n"/>
+      <c r="X1018" s="57" t="n"/>
+      <c r="Y1018" s="57" t="n"/>
+      <c r="Z1018" s="57" t="n"/>
+      <c r="AA1018" s="57" t="n"/>
+      <c r="AB1018" s="57" t="n"/>
+      <c r="AC1018" s="57" t="n"/>
+      <c r="AD1018" s="56" t="n"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="56" t="n"/>
+      <c r="B1019" s="56" t="n"/>
+      <c r="C1019" s="56" t="n"/>
+      <c r="D1019" s="56" t="n"/>
+      <c r="E1019" s="57" t="n"/>
+      <c r="F1019" s="57" t="n"/>
+      <c r="G1019" s="58" t="n"/>
+      <c r="H1019" s="57" t="n"/>
+      <c r="I1019" s="56" t="n"/>
+      <c r="J1019" s="57" t="n"/>
+      <c r="K1019" s="57" t="n"/>
+      <c r="L1019" s="57" t="n"/>
+      <c r="M1019" s="56" t="n"/>
+      <c r="N1019" s="56" t="n"/>
+      <c r="O1019" s="56" t="n"/>
+      <c r="P1019" s="56" t="n"/>
+      <c r="Q1019" s="56" t="n"/>
+      <c r="R1019" s="56" t="n"/>
+      <c r="S1019" s="56" t="n"/>
+      <c r="T1019" s="56" t="n"/>
+      <c r="U1019" s="56" t="n"/>
+      <c r="V1019" s="56" t="n"/>
+      <c r="W1019" s="57" t="n"/>
+      <c r="X1019" s="57" t="n"/>
+      <c r="Y1019" s="57" t="n"/>
+      <c r="Z1019" s="57" t="n"/>
+      <c r="AA1019" s="57" t="n"/>
+      <c r="AB1019" s="57" t="n"/>
+      <c r="AC1019" s="57" t="n"/>
+      <c r="AD1019" s="56" t="n"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="56" t="n"/>
+      <c r="B1020" s="56" t="n"/>
+      <c r="C1020" s="56" t="n"/>
+      <c r="D1020" s="56" t="n"/>
+      <c r="E1020" s="57" t="n"/>
+      <c r="F1020" s="57" t="n"/>
+      <c r="G1020" s="58" t="n"/>
+      <c r="H1020" s="57" t="n"/>
+      <c r="I1020" s="56" t="n"/>
+      <c r="J1020" s="57" t="n"/>
+      <c r="K1020" s="57" t="n"/>
+      <c r="L1020" s="57" t="n"/>
+      <c r="M1020" s="56" t="n"/>
+      <c r="N1020" s="56" t="n"/>
+      <c r="O1020" s="56" t="n"/>
+      <c r="P1020" s="56" t="n"/>
+      <c r="Q1020" s="56" t="n"/>
+      <c r="R1020" s="56" t="n"/>
+      <c r="S1020" s="56" t="n"/>
+      <c r="T1020" s="56" t="n"/>
+      <c r="U1020" s="56" t="n"/>
+      <c r="V1020" s="56" t="n"/>
+      <c r="W1020" s="57" t="n"/>
+      <c r="X1020" s="57" t="n"/>
+      <c r="Y1020" s="57" t="n"/>
+      <c r="Z1020" s="57" t="n"/>
+      <c r="AA1020" s="57" t="n"/>
+      <c r="AB1020" s="57" t="n"/>
+      <c r="AC1020" s="57" t="n"/>
+      <c r="AD1020" s="56" t="n"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="56" t="n"/>
+      <c r="B1021" s="56" t="n"/>
+      <c r="C1021" s="56" t="n"/>
+      <c r="D1021" s="56" t="n"/>
+      <c r="E1021" s="57" t="n"/>
+      <c r="F1021" s="57" t="n"/>
+      <c r="G1021" s="58" t="n"/>
+      <c r="H1021" s="57" t="n"/>
+      <c r="I1021" s="56" t="n"/>
+      <c r="J1021" s="57" t="n"/>
+      <c r="K1021" s="57" t="n"/>
+      <c r="L1021" s="57" t="n"/>
+      <c r="M1021" s="56" t="n"/>
+      <c r="N1021" s="56" t="n"/>
+      <c r="O1021" s="56" t="n"/>
+      <c r="P1021" s="56" t="n"/>
+      <c r="Q1021" s="56" t="n"/>
+      <c r="R1021" s="56" t="n"/>
+      <c r="S1021" s="56" t="n"/>
+      <c r="T1021" s="56" t="n"/>
+      <c r="U1021" s="56" t="n"/>
+      <c r="V1021" s="56" t="n"/>
+      <c r="W1021" s="57" t="n"/>
+      <c r="X1021" s="57" t="n"/>
+      <c r="Y1021" s="57" t="n"/>
+      <c r="Z1021" s="57" t="n"/>
+      <c r="AA1021" s="57" t="n"/>
+      <c r="AB1021" s="57" t="n"/>
+      <c r="AC1021" s="57" t="n"/>
+      <c r="AD1021" s="56" t="n"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="56" t="n"/>
+      <c r="B1022" s="56" t="n"/>
+      <c r="C1022" s="56" t="n"/>
+      <c r="D1022" s="56" t="n"/>
+      <c r="E1022" s="57" t="n"/>
+      <c r="F1022" s="57" t="n"/>
+      <c r="G1022" s="58" t="n"/>
+      <c r="H1022" s="57" t="n"/>
+      <c r="I1022" s="56" t="n"/>
+      <c r="J1022" s="57" t="n"/>
+      <c r="K1022" s="57" t="n"/>
+      <c r="L1022" s="57" t="n"/>
+      <c r="M1022" s="56" t="n"/>
+      <c r="N1022" s="56" t="n"/>
+      <c r="O1022" s="56" t="n"/>
+      <c r="P1022" s="56" t="n"/>
+      <c r="Q1022" s="56" t="n"/>
+      <c r="R1022" s="56" t="n"/>
+      <c r="S1022" s="56" t="n"/>
+      <c r="T1022" s="56" t="n"/>
+      <c r="U1022" s="56" t="n"/>
+      <c r="V1022" s="56" t="n"/>
+      <c r="W1022" s="57" t="n"/>
+      <c r="X1022" s="57" t="n"/>
+      <c r="Y1022" s="57" t="n"/>
+      <c r="Z1022" s="57" t="n"/>
+      <c r="AA1022" s="57" t="n"/>
+      <c r="AB1022" s="57" t="n"/>
+      <c r="AC1022" s="57" t="n"/>
+      <c r="AD1022" s="56" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$4:$AO$92"/>

--- a/dumps/Stocks/SBI ETF Gold.xlsx
+++ b/dumps/Stocks/SBI ETF Gold.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1022"/>
+  <dimension ref="A1:AP1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="5">
       <c r="A5" s="93" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1121,17 +1121,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
-        <v>108.032</v>
+        <v>105.03</v>
       </c>
       <c r="F5" t="n">
-        <v>3260.96</v>
+        <v>7372.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1144,7 +1144,7 @@
     </row>
     <row r="6">
       <c r="A6" s="93" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1160,14 +1160,14 @@
         <v>40</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>106.14</v>
+        <v>107.666</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4265.6</v>
+        <v>4326.64</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="7">
       <c r="A7" s="93" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
         <v>30</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>104.73</v>
+        <v>108.032</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3161.9</v>
+        <v>3260.96</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="8">
       <c r="A8" s="93" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1232,14 +1232,14 @@
         <v>40</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>103.19</v>
+        <v>106.14</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4147.6</v>
+        <v>4265.6</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="9">
       <c r="A9" s="93" t="n">
-        <v>45960</v>
+        <v>45971</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1265,17 +1265,17 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>101.8006</v>
+        <v>104.73</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5110.03</v>
+        <v>3161.9</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252607551490</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="10">
       <c r="A10" s="93" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1301,17 +1301,17 @@
         </is>
       </c>
       <c r="D10" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>101.3</v>
+        <v>103.19</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5085</v>
+        <v>4147.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
@@ -1324,39 +1324,43 @@
     </row>
     <row r="11">
       <c r="A11" s="93" t="n">
-        <v>46063</v>
+        <v>45960</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>131.5987</v>
+        <v>101.8006</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>52639.48</v>
+        <v>5110.03</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607551490</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>25.99</v>
+        <v>20</v>
+      </c>
+      <c r="J11" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="93" t="n">
-        <v>46062</v>
+        <v>45959</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1365,261 +1369,127 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="93" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D13" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>131.5987</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>52639.48</v>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="93" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>132.0378</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>66018.89999999999</v>
       </c>
-      <c r="G12" s="0" t="inlineStr">
+      <c r="G14" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="31" t="n">
+    <row r="15">
+      <c r="A15" s="31" t="n">
         <v>45863</v>
       </c>
-      <c r="B13" s="32" t="inlineStr">
+      <c r="B15" s="32" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C13" s="32" t="inlineStr">
+      <c r="C15" s="32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D15" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E15" s="34" t="n">
         <v>4.75</v>
       </c>
-      <c r="F13" s="34" t="n">
+      <c r="F15" s="34" t="n">
         <v>475</v>
       </c>
-      <c r="G13" s="32" t="inlineStr">
+      <c r="G15" s="32" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.4.7500/- per share on Ex-Date: 25-JUL-2025</t>
         </is>
       </c>
-      <c r="H13" s="34" t="n">
+      <c r="H15" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K13" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L13" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M13" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N13" s="38">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O13" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P13" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R13" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S13" s="39">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T13" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U13" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V13" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W13" s="40" t="n"/>
-      <c r="X13" s="40" t="n"/>
-      <c r="Y13" s="39">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="40" t="n"/>
-      <c r="AA13" s="40" t="n"/>
-      <c r="AB13" s="41" t="n"/>
-      <c r="AC13" s="37">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD13" s="42" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="43" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B14" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C14" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D14" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E14" s="46" t="n">
-        <v>114.17</v>
-      </c>
-      <c r="F14" s="46" t="n">
-        <v>6850.01</v>
-      </c>
-      <c r="G14" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H14" s="46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I14" s="45" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="J14" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K14" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L14" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M14" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N14" s="38">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O14" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P14" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R14" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S14" s="39">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T14" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U14" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V14" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W14" s="40" t="n"/>
-      <c r="X14" s="40" t="n"/>
-      <c r="Y14" s="39">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="40" t="n"/>
-      <c r="AA14" s="40" t="n"/>
-      <c r="AB14" s="41" t="n"/>
-      <c r="AC14" s="37">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD14" s="42" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>144</v>
-      </c>
-      <c r="G15" s="44" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
-        </is>
-      </c>
-      <c r="H15" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="45" t="n">
+      <c r="I15" s="33" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="35">
@@ -1627,71 +1497,71 @@
         <v/>
       </c>
       <c r="K15" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L15" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M15" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N15" s="38">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O15" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P15" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q15" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R15" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S15" s="39">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T15" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U15" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V15" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W15" s="40" t="n"/>
       <c r="X15" s="40" t="n"/>
       <c r="Y15" s="39">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z15" s="40" t="n"/>
       <c r="AA15" s="40" t="n"/>
       <c r="AB15" s="41" t="n"/>
       <c r="AC15" s="37">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD15" s="42" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="43" t="n">
-        <v>45282</v>
+        <v>45699</v>
       </c>
       <c r="B16" s="44" t="inlineStr">
         <is>
@@ -1704,13 +1574,13 @@
         </is>
       </c>
       <c r="D16" s="45" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E16" s="46" t="n">
-        <v>117.99</v>
+        <v>114.17</v>
       </c>
       <c r="F16" s="46" t="n">
-        <v>2359.71</v>
+        <v>6850.01</v>
       </c>
       <c r="G16" s="44" t="inlineStr">
         <is>
@@ -1718,89 +1588,85 @@
         </is>
       </c>
       <c r="H16" s="46" t="n">
-        <v>2.34</v>
+        <v>6.78</v>
       </c>
       <c r="I16" s="45" t="n">
-        <v>14.37</v>
+        <v>41.63</v>
       </c>
       <c r="J16" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K16" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L16" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M16" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N16" s="38">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O16" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P16" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q16" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R16" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S16" s="39">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T16" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U16" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V16" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W16" s="40" t="n"/>
       <c r="X16" s="40" t="n"/>
       <c r="Y16" s="39">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z16" s="40" t="n"/>
       <c r="AA16" s="40" t="n"/>
       <c r="AB16" s="41" t="n"/>
       <c r="AC16" s="37">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
-      <c r="AD16" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD16" s="42" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="43" t="n">
-        <v>45278</v>
+        <v>45492</v>
       </c>
       <c r="B17" s="44" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C17" s="44" t="inlineStr">
@@ -1809,99 +1675,95 @@
         </is>
       </c>
       <c r="D17" s="45" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E17" s="46" t="n">
-        <v>125.73</v>
+        <v>3.6</v>
       </c>
       <c r="F17" s="46" t="n">
-        <v>1257.3</v>
+        <v>144</v>
       </c>
       <c r="G17" s="44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
         </is>
       </c>
       <c r="H17" s="46" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I17" s="45" t="n">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="J17" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K17" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L17" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M17" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N17" s="38">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O17" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P17" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R17" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S17" s="39">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T17" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U17" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V17" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W17" s="40" t="n"/>
       <c r="X17" s="40" t="n"/>
       <c r="Y17" s="39">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z17" s="40" t="n"/>
       <c r="AA17" s="40" t="n"/>
       <c r="AB17" s="41" t="n"/>
       <c r="AC17" s="37">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD17" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD17" s="42" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B18" s="44" t="inlineStr">
         <is>
@@ -1914,13 +1776,13 @@
         </is>
       </c>
       <c r="D18" s="45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E18" s="46" t="n">
-        <v>107.7</v>
+        <v>117.99</v>
       </c>
       <c r="F18" s="46" t="n">
-        <v>1077.03</v>
+        <v>2359.71</v>
       </c>
       <c r="G18" s="44" t="inlineStr">
         <is>
@@ -1928,74 +1790,74 @@
         </is>
       </c>
       <c r="H18" s="46" t="n">
-        <v>1.07</v>
+        <v>2.34</v>
       </c>
       <c r="I18" s="45" t="n">
-        <v>6.46</v>
+        <v>14.37</v>
       </c>
       <c r="J18" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L18" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M18" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N18" s="38">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O18" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P18" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R18" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S18" s="39">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T18" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U18" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V18" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W18" s="40" t="n"/>
       <c r="X18" s="40" t="n"/>
       <c r="Y18" s="39">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z18" s="40" t="n"/>
       <c r="AA18" s="40" t="n"/>
       <c r="AB18" s="41" t="n"/>
       <c r="AC18" s="37">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD18" s="47" t="inlineStr">
@@ -2005,8 +1867,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="48" t="n">
-        <v>44257</v>
+      <c r="A19" s="43" t="n">
+        <v>45278</v>
       </c>
       <c r="B19" s="44" t="inlineStr">
         <is>
@@ -2015,17 +1877,17 @@
       </c>
       <c r="C19" s="44" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D19" s="45" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E19" s="46" t="n">
-        <v>40.49</v>
+        <v>125.73</v>
       </c>
       <c r="F19" s="46" t="n">
-        <v>8097.1</v>
+        <v>1257.3</v>
       </c>
       <c r="G19" s="44" t="inlineStr">
         <is>
@@ -2033,74 +1895,74 @@
         </is>
       </c>
       <c r="H19" s="46" t="n">
-        <v>8.130000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="I19" s="45" t="n">
-        <v>47.47</v>
+        <v>7.55</v>
       </c>
       <c r="J19" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L19" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M19" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N19" s="38">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O19" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P19" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R19" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S19" s="39">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T19" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U19" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V19" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W19" s="40" t="n"/>
       <c r="X19" s="40" t="n"/>
       <c r="Y19" s="39">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z19" s="40" t="n"/>
       <c r="AA19" s="40" t="n"/>
       <c r="AB19" s="41" t="n"/>
       <c r="AC19" s="37">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD19" s="47" t="inlineStr">
@@ -2110,8 +1972,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="48" t="n">
-        <v>44021</v>
+      <c r="A20" s="43" t="n">
+        <v>45258</v>
       </c>
       <c r="B20" s="44" t="inlineStr">
         <is>
@@ -2124,13 +1986,13 @@
         </is>
       </c>
       <c r="D20" s="45" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E20" s="46" t="n">
-        <v>33.03</v>
+        <v>107.7</v>
       </c>
       <c r="F20" s="46" t="n">
-        <v>3335.87</v>
+        <v>1077.03</v>
       </c>
       <c r="G20" s="44" t="inlineStr">
         <is>
@@ -2138,55 +2000,76 @@
         </is>
       </c>
       <c r="H20" s="46" t="n">
-        <v>3.36</v>
+        <v>1.07</v>
       </c>
       <c r="I20" s="45" t="n">
-        <v>19.71</v>
+        <v>6.46</v>
       </c>
       <c r="J20" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K20" s="54" t="n"/>
-      <c r="L20" s="54">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+      <c r="K20" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="M20" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+      <c r="L20" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="N20" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M20" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
-      <c r="O20" s="52" t="n"/>
-      <c r="P20" s="54" t="n"/>
-      <c r="Q20" s="50" t="n"/>
-      <c r="R20" s="50" t="n"/>
-      <c r="S20" s="53" t="n"/>
-      <c r="T20" s="53" t="n"/>
-      <c r="U20" s="53" t="n"/>
-      <c r="V20" s="53" t="n"/>
-      <c r="W20" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X20" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y20" s="39" t="n">
-        <v>0.2090873907</v>
-      </c>
-      <c r="Z20" s="54" t="n">
-        <v>702.312</v>
-      </c>
-      <c r="AA20" s="54" t="n">
-        <v>4061.412</v>
-      </c>
-      <c r="AB20" s="55" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC20" s="54" t="n"/>
+      <c r="N20" s="38">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O20" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P20" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R20" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S20" s="39">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T20" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U20" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V20" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W20" s="40" t="n"/>
+      <c r="X20" s="40" t="n"/>
+      <c r="Y20" s="39">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z20" s="40" t="n"/>
+      <c r="AA20" s="40" t="n"/>
+      <c r="AB20" s="41" t="n"/>
+      <c r="AC20" s="37">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
       <c r="AD20" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
@@ -2194,83 +2077,104 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43" t="n">
-        <v>43910</v>
+      <c r="A21" s="48" t="n">
+        <v>44257</v>
       </c>
       <c r="B21" s="44" t="inlineStr">
         <is>
-          <t>MRGR</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" s="44" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D21" s="45" t="n">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="E21" s="46" t="n">
-        <v>143.44</v>
+        <v>40.49</v>
       </c>
       <c r="F21" s="46" t="n">
-        <v>14200.35</v>
+        <v>8097.1</v>
       </c>
       <c r="G21" s="44" t="inlineStr">
         <is>
-          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H21" s="46" t="n">
-        <v>14</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I21" s="45" t="n">
-        <v>86.34999999999999</v>
+        <v>47.47</v>
       </c>
       <c r="J21" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K21" s="54" t="n"/>
-      <c r="L21" s="54">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+      <c r="K21" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M21" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+      <c r="L21" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N21" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M21" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O21" s="52" t="n"/>
-      <c r="P21" s="54" t="n"/>
-      <c r="Q21" s="50" t="n"/>
-      <c r="R21" s="50" t="n"/>
-      <c r="S21" s="53" t="n"/>
-      <c r="T21" s="53" t="n"/>
-      <c r="U21" s="53" t="n"/>
-      <c r="V21" s="53" t="n"/>
-      <c r="W21" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X21" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y21" s="39" t="n">
-        <v>-0.7216375422</v>
-      </c>
-      <c r="Z21" s="54" t="n">
-        <v>-10319.922</v>
-      </c>
-      <c r="AA21" s="54" t="n">
-        <v>3980.988</v>
-      </c>
-      <c r="AB21" s="55" t="n">
-        <v>99</v>
-      </c>
-      <c r="AC21" s="54" t="n"/>
+      <c r="N21" s="38">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O21" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P21" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R21" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S21" s="39">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T21" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U21" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V21" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W21" s="40" t="n"/>
+      <c r="X21" s="40" t="n"/>
+      <c r="Y21" s="39">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z21" s="40" t="n"/>
+      <c r="AA21" s="40" t="n"/>
+      <c r="AB21" s="41" t="n"/>
+      <c r="AC21" s="37">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD21" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
@@ -2278,68 +2182,172 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="56" t="n"/>
-      <c r="B22" s="56" t="n"/>
-      <c r="C22" s="56" t="n"/>
-      <c r="D22" s="56" t="n"/>
-      <c r="E22" s="57" t="n"/>
-      <c r="F22" s="57" t="n"/>
-      <c r="G22" s="58" t="n"/>
-      <c r="H22" s="57" t="n"/>
-      <c r="I22" s="56" t="n"/>
-      <c r="J22" s="57" t="n"/>
-      <c r="K22" s="57" t="n"/>
-      <c r="L22" s="57" t="n"/>
-      <c r="M22" s="2" t="n"/>
-      <c r="N22" s="56" t="n"/>
-      <c r="O22" s="56" t="n"/>
-      <c r="P22" s="56" t="n"/>
-      <c r="Q22" s="56" t="n"/>
-      <c r="R22" s="56" t="n"/>
-      <c r="S22" s="56" t="n"/>
-      <c r="T22" s="56" t="n"/>
-      <c r="U22" s="56" t="n"/>
-      <c r="V22" s="56" t="n"/>
-      <c r="W22" s="57" t="n"/>
-      <c r="X22" s="57" t="n"/>
-      <c r="Y22" s="57" t="n"/>
-      <c r="Z22" s="57" t="n"/>
-      <c r="AA22" s="57" t="n"/>
-      <c r="AB22" s="57" t="n"/>
-      <c r="AC22" s="57" t="n"/>
-      <c r="AD22" s="56" t="n"/>
+      <c r="A22" s="48" t="n">
+        <v>44021</v>
+      </c>
+      <c r="B22" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C22" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" s="45" t="n">
+        <v>101</v>
+      </c>
+      <c r="E22" s="46" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="F22" s="46" t="n">
+        <v>3335.87</v>
+      </c>
+      <c r="G22" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H22" s="46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I22" s="45" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="J22" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K22" s="54" t="n"/>
+      <c r="L22" s="54">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+        <v/>
+      </c>
+      <c r="M22" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+        <v/>
+      </c>
+      <c r="N22" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O22" s="52" t="n"/>
+      <c r="P22" s="54" t="n"/>
+      <c r="Q22" s="50" t="n"/>
+      <c r="R22" s="50" t="n"/>
+      <c r="S22" s="53" t="n"/>
+      <c r="T22" s="53" t="n"/>
+      <c r="U22" s="53" t="n"/>
+      <c r="V22" s="53" t="n"/>
+      <c r="W22" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X22" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y22" s="39" t="n">
+        <v>0.2090873907</v>
+      </c>
+      <c r="Z22" s="54" t="n">
+        <v>702.312</v>
+      </c>
+      <c r="AA22" s="54" t="n">
+        <v>4061.412</v>
+      </c>
+      <c r="AB22" s="55" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="54" t="n"/>
+      <c r="AD22" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="56" t="n"/>
-      <c r="B23" s="56" t="n"/>
-      <c r="C23" s="56" t="n"/>
-      <c r="D23" s="56" t="n"/>
-      <c r="E23" s="57" t="n"/>
-      <c r="F23" s="57" t="n"/>
-      <c r="G23" s="58" t="n"/>
-      <c r="H23" s="57" t="n"/>
-      <c r="I23" s="56" t="n"/>
-      <c r="J23" s="57" t="n"/>
-      <c r="K23" s="57" t="n"/>
-      <c r="L23" s="57" t="n"/>
-      <c r="M23" s="2" t="n"/>
-      <c r="N23" s="56" t="n"/>
-      <c r="O23" s="56" t="n"/>
-      <c r="P23" s="56" t="n"/>
-      <c r="Q23" s="56" t="n"/>
-      <c r="R23" s="56" t="n"/>
-      <c r="S23" s="56" t="n"/>
-      <c r="T23" s="56" t="n"/>
-      <c r="U23" s="56" t="n"/>
-      <c r="V23" s="56" t="n"/>
-      <c r="W23" s="57" t="n"/>
-      <c r="X23" s="57" t="n"/>
-      <c r="Y23" s="57" t="n"/>
-      <c r="Z23" s="57" t="n"/>
-      <c r="AA23" s="57" t="n"/>
-      <c r="AB23" s="57" t="n"/>
-      <c r="AC23" s="57" t="n"/>
-      <c r="AD23" s="56" t="n"/>
+      <c r="A23" s="43" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B23" s="44" t="inlineStr">
+        <is>
+          <t>MRGR</t>
+        </is>
+      </c>
+      <c r="C23" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" s="45" t="n">
+        <v>99</v>
+      </c>
+      <c r="E23" s="46" t="n">
+        <v>143.44</v>
+      </c>
+      <c r="F23" s="46" t="n">
+        <v>14200.35</v>
+      </c>
+      <c r="G23" s="44" t="inlineStr">
+        <is>
+          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+        </is>
+      </c>
+      <c r="H23" s="46" t="n">
+        <v>14</v>
+      </c>
+      <c r="I23" s="45" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="J23" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K23" s="54" t="n"/>
+      <c r="L23" s="54">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+        <v/>
+      </c>
+      <c r="M23" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+        <v/>
+      </c>
+      <c r="N23" s="51">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O23" s="52" t="n"/>
+      <c r="P23" s="54" t="n"/>
+      <c r="Q23" s="50" t="n"/>
+      <c r="R23" s="50" t="n"/>
+      <c r="S23" s="53" t="n"/>
+      <c r="T23" s="53" t="n"/>
+      <c r="U23" s="53" t="n"/>
+      <c r="V23" s="53" t="n"/>
+      <c r="W23" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X23" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y23" s="39" t="n">
+        <v>-0.7216375422</v>
+      </c>
+      <c r="Z23" s="54" t="n">
+        <v>-10319.922</v>
+      </c>
+      <c r="AA23" s="54" t="n">
+        <v>3980.988</v>
+      </c>
+      <c r="AB23" s="55" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC23" s="54" t="n"/>
+      <c r="AD23" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="56" t="n"/>
@@ -33778,7 +33786,7 @@
       <c r="J1006" s="57" t="n"/>
       <c r="K1006" s="57" t="n"/>
       <c r="L1006" s="57" t="n"/>
-      <c r="M1006" s="56" t="n"/>
+      <c r="M1006" s="2" t="n"/>
       <c r="N1006" s="56" t="n"/>
       <c r="O1006" s="56" t="n"/>
       <c r="P1006" s="56" t="n"/>
@@ -33810,7 +33818,7 @@
       <c r="J1007" s="57" t="n"/>
       <c r="K1007" s="57" t="n"/>
       <c r="L1007" s="57" t="n"/>
-      <c r="M1007" s="56" t="n"/>
+      <c r="M1007" s="2" t="n"/>
       <c r="N1007" s="56" t="n"/>
       <c r="O1007" s="56" t="n"/>
       <c r="P1007" s="56" t="n"/>
@@ -34308,6 +34316,70 @@
       <c r="AB1022" s="57" t="n"/>
       <c r="AC1022" s="57" t="n"/>
       <c r="AD1022" s="56" t="n"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="56" t="n"/>
+      <c r="B1023" s="56" t="n"/>
+      <c r="C1023" s="56" t="n"/>
+      <c r="D1023" s="56" t="n"/>
+      <c r="E1023" s="57" t="n"/>
+      <c r="F1023" s="57" t="n"/>
+      <c r="G1023" s="58" t="n"/>
+      <c r="H1023" s="57" t="n"/>
+      <c r="I1023" s="56" t="n"/>
+      <c r="J1023" s="57" t="n"/>
+      <c r="K1023" s="57" t="n"/>
+      <c r="L1023" s="57" t="n"/>
+      <c r="M1023" s="56" t="n"/>
+      <c r="N1023" s="56" t="n"/>
+      <c r="O1023" s="56" t="n"/>
+      <c r="P1023" s="56" t="n"/>
+      <c r="Q1023" s="56" t="n"/>
+      <c r="R1023" s="56" t="n"/>
+      <c r="S1023" s="56" t="n"/>
+      <c r="T1023" s="56" t="n"/>
+      <c r="U1023" s="56" t="n"/>
+      <c r="V1023" s="56" t="n"/>
+      <c r="W1023" s="57" t="n"/>
+      <c r="X1023" s="57" t="n"/>
+      <c r="Y1023" s="57" t="n"/>
+      <c r="Z1023" s="57" t="n"/>
+      <c r="AA1023" s="57" t="n"/>
+      <c r="AB1023" s="57" t="n"/>
+      <c r="AC1023" s="57" t="n"/>
+      <c r="AD1023" s="56" t="n"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="56" t="n"/>
+      <c r="B1024" s="56" t="n"/>
+      <c r="C1024" s="56" t="n"/>
+      <c r="D1024" s="56" t="n"/>
+      <c r="E1024" s="57" t="n"/>
+      <c r="F1024" s="57" t="n"/>
+      <c r="G1024" s="58" t="n"/>
+      <c r="H1024" s="57" t="n"/>
+      <c r="I1024" s="56" t="n"/>
+      <c r="J1024" s="57" t="n"/>
+      <c r="K1024" s="57" t="n"/>
+      <c r="L1024" s="57" t="n"/>
+      <c r="M1024" s="56" t="n"/>
+      <c r="N1024" s="56" t="n"/>
+      <c r="O1024" s="56" t="n"/>
+      <c r="P1024" s="56" t="n"/>
+      <c r="Q1024" s="56" t="n"/>
+      <c r="R1024" s="56" t="n"/>
+      <c r="S1024" s="56" t="n"/>
+      <c r="T1024" s="56" t="n"/>
+      <c r="U1024" s="56" t="n"/>
+      <c r="V1024" s="56" t="n"/>
+      <c r="W1024" s="57" t="n"/>
+      <c r="X1024" s="57" t="n"/>
+      <c r="Y1024" s="57" t="n"/>
+      <c r="Z1024" s="57" t="n"/>
+      <c r="AA1024" s="57" t="n"/>
+      <c r="AB1024" s="57" t="n"/>
+      <c r="AC1024" s="57" t="n"/>
+      <c r="AD1024" s="56" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$4:$AO$92"/>

--- a/dumps/Stocks/SBI ETF Gold.xlsx
+++ b/dumps/Stocks/SBI ETF Gold.xlsx
@@ -757,7 +757,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1024"/>
+  <dimension ref="A1:AP1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1108,11 +1108,11 @@
     </row>
     <row r="5">
       <c r="A5" s="93" t="n">
-        <v>45978</v>
+        <v>45981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1121,17 +1121,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>105.03</v>
+        <v>104.8794</v>
       </c>
       <c r="F5" t="n">
-        <v>7372.1</v>
+        <v>5263.97</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -1144,11 +1144,11 @@
     </row>
     <row r="6">
       <c r="A6" s="93" t="n">
-        <v>45975</v>
+        <v>45979</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1157,17 +1157,17 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>107.666</v>
+        <v>103.52</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4326.64</v>
+        <v>5196</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
@@ -1180,7 +1180,7 @@
     </row>
     <row r="7">
       <c r="A7" s="93" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1193,17 +1193,17 @@
         </is>
       </c>
       <c r="D7" s="0" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>108.032</v>
+        <v>105.03</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3260.96</v>
+        <v>7372.1</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="8">
       <c r="A8" s="93" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1232,14 +1232,14 @@
         <v>40</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>106.14</v>
+        <v>107.666</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4265.6</v>
+        <v>4326.64</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="9">
       <c r="A9" s="93" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1268,14 +1268,14 @@
         <v>30</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>104.73</v>
+        <v>108.032</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3161.9</v>
+        <v>3260.96</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="10">
       <c r="A10" s="93" t="n">
-        <v>45961</v>
+        <v>45972</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1304,14 +1304,14 @@
         <v>40</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>103.19</v>
+        <v>106.14</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>4147.6</v>
+        <v>4265.6</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
@@ -1324,7 +1324,7 @@
     </row>
     <row r="11">
       <c r="A11" s="93" t="n">
-        <v>45960</v>
+        <v>45971</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1337,17 +1337,17 @@
         </is>
       </c>
       <c r="D11" s="0" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>101.8006</v>
+        <v>104.73</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5110.03</v>
+        <v>3161.9</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252607551490</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
@@ -1360,7 +1360,7 @@
     </row>
     <row r="12">
       <c r="A12" s="93" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1373,17 +1373,17 @@
         </is>
       </c>
       <c r="D12" s="0" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>101.3</v>
+        <v>103.19</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5085</v>
+        <v>4147.6</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
@@ -1396,39 +1396,43 @@
     </row>
     <row r="13">
       <c r="A13" s="93" t="n">
-        <v>46063</v>
+        <v>45960</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>131.5987</v>
+        <v>101.8006</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>52639.48</v>
+        <v>5110.03</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252607551490</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>25.99</v>
+        <v>20</v>
+      </c>
+      <c r="J13" s="0">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="93" t="n">
-        <v>46062</v>
+        <v>45959</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1437,261 +1441,127 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>5085</v>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607497001</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" s="0">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="93" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>BSE</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D15" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>131.5987</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>52639.48</v>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="93" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>132.0378</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>66018.89999999999</v>
       </c>
-      <c r="G14" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>CN#252611665409</t>
         </is>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>26.1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="31" t="n">
+    <row r="17">
+      <c r="A17" s="31" t="n">
         <v>45863</v>
       </c>
-      <c r="B15" s="32" t="inlineStr">
+      <c r="B17" s="32" t="inlineStr">
         <is>
           <t>DIV</t>
         </is>
       </c>
-      <c r="C15" s="32" t="inlineStr">
+      <c r="C17" s="32" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D15" s="33" t="n">
+      <c r="D17" s="33" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="34" t="n">
+      <c r="E17" s="34" t="n">
         <v>4.75</v>
       </c>
-      <c r="F15" s="34" t="n">
+      <c r="F17" s="34" t="n">
         <v>475</v>
       </c>
-      <c r="G15" s="32" t="inlineStr">
+      <c r="G17" s="32" t="inlineStr">
         <is>
           <t>Annual-Dividend of Rs.4.7500/- per share on Ex-Date: 25-JUL-2025</t>
         </is>
       </c>
-      <c r="H15" s="34" t="n">
+      <c r="H17" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K15" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L15" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M15" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N15" s="38">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O15" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P15" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R15" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S15" s="39">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T15" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U15" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V15" s="40">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W15" s="40" t="n"/>
-      <c r="X15" s="40" t="n"/>
-      <c r="Y15" s="39">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="40" t="n"/>
-      <c r="AA15" s="40" t="n"/>
-      <c r="AB15" s="41" t="n"/>
-      <c r="AC15" s="37">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD15" s="42" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="n">
-        <v>45699</v>
-      </c>
-      <c r="B16" s="44" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C16" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D16" s="45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E16" s="46" t="n">
-        <v>114.17</v>
-      </c>
-      <c r="F16" s="46" t="n">
-        <v>6850.01</v>
-      </c>
-      <c r="G16" s="44" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H16" s="46" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="I16" s="45" t="n">
-        <v>41.63</v>
-      </c>
-      <c r="J16" s="35">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K16" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="L16" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="M16" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
-        <v/>
-      </c>
-      <c r="N16" s="38">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
-        <v/>
-      </c>
-      <c r="O16" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="P16" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
-        <v/>
-      </c>
-      <c r="R16" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="S16" s="39">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="T16" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v/>
-      </c>
-      <c r="U16" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
-        <v/>
-      </c>
-      <c r="V16" s="40">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
-        <v/>
-      </c>
-      <c r="W16" s="40" t="n"/>
-      <c r="X16" s="40" t="n"/>
-      <c r="Y16" s="39">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="40" t="n"/>
-      <c r="AA16" s="40" t="n"/>
-      <c r="AB16" s="41" t="n"/>
-      <c r="AC16" s="37">
-        <f>if(B6="DIV", F6,"")</f>
-        <v/>
-      </c>
-      <c r="AD16" s="42" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="n">
-        <v>45492</v>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>DIV</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E17" s="46" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>144</v>
-      </c>
-      <c r="G17" s="44" t="inlineStr">
-        <is>
-          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
-        </is>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="45" t="n">
+      <c r="I17" s="33" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="35">
@@ -1699,71 +1569,71 @@
         <v/>
       </c>
       <c r="K17" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L17" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M17" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N17" s="38">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O17" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P17" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q17" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R17" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S17" s="39">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T17" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U17" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V17" s="40">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W17" s="40" t="n"/>
       <c r="X17" s="40" t="n"/>
       <c r="Y17" s="39">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z17" s="40" t="n"/>
       <c r="AA17" s="40" t="n"/>
       <c r="AB17" s="41" t="n"/>
       <c r="AC17" s="37">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD17" s="42" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="43" t="n">
-        <v>45282</v>
+        <v>45699</v>
       </c>
       <c r="B18" s="44" t="inlineStr">
         <is>
@@ -1776,13 +1646,13 @@
         </is>
       </c>
       <c r="D18" s="45" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E18" s="46" t="n">
-        <v>117.99</v>
+        <v>114.17</v>
       </c>
       <c r="F18" s="46" t="n">
-        <v>2359.71</v>
+        <v>6850.01</v>
       </c>
       <c r="G18" s="44" t="inlineStr">
         <is>
@@ -1790,89 +1660,85 @@
         </is>
       </c>
       <c r="H18" s="46" t="n">
-        <v>2.34</v>
+        <v>6.78</v>
       </c>
       <c r="I18" s="45" t="n">
-        <v>14.37</v>
+        <v>41.63</v>
       </c>
       <c r="J18" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K18" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L18" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M18" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N18" s="38">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O18" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P18" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q18" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R18" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S18" s="39">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T18" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U18" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V18" s="40">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W18" s="40" t="n"/>
       <c r="X18" s="40" t="n"/>
       <c r="Y18" s="39">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z18" s="40" t="n"/>
       <c r="AA18" s="40" t="n"/>
       <c r="AB18" s="41" t="n"/>
       <c r="AC18" s="37">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
-      <c r="AD18" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD18" s="42" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="43" t="n">
-        <v>45278</v>
+        <v>45492</v>
       </c>
       <c r="B19" s="44" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C19" s="44" t="inlineStr">
@@ -1881,99 +1747,95 @@
         </is>
       </c>
       <c r="D19" s="45" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E19" s="46" t="n">
-        <v>125.73</v>
+        <v>3.6</v>
       </c>
       <c r="F19" s="46" t="n">
-        <v>1257.3</v>
+        <v>144</v>
       </c>
       <c r="G19" s="44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Annual-Dividend of Rs.3.6000/- per share on Ex-Date: 19-JUL-2024</t>
         </is>
       </c>
       <c r="H19" s="46" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I19" s="45" t="n">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="J19" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K19" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L19" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M19" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N19" s="38">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O19" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P19" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q19" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R19" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S19" s="39">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T19" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U19" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V19" s="40">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W19" s="40" t="n"/>
       <c r="X19" s="40" t="n"/>
       <c r="Y19" s="39">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z19" s="40" t="n"/>
       <c r="AA19" s="40" t="n"/>
       <c r="AB19" s="41" t="n"/>
       <c r="AC19" s="37">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
-      <c r="AD19" s="47" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+      <c r="AD19" s="42" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="43" t="n">
-        <v>45258</v>
+        <v>45282</v>
       </c>
       <c r="B20" s="44" t="inlineStr">
         <is>
@@ -1986,13 +1848,13 @@
         </is>
       </c>
       <c r="D20" s="45" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="46" t="n">
-        <v>107.7</v>
+        <v>117.99</v>
       </c>
       <c r="F20" s="46" t="n">
-        <v>1077.03</v>
+        <v>2359.71</v>
       </c>
       <c r="G20" s="44" t="inlineStr">
         <is>
@@ -2000,74 +1862,74 @@
         </is>
       </c>
       <c r="H20" s="46" t="n">
-        <v>1.07</v>
+        <v>2.34</v>
       </c>
       <c r="I20" s="45" t="n">
-        <v>6.46</v>
+        <v>14.37</v>
       </c>
       <c r="J20" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K20" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L20" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M20" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N20" s="38">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O20" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P20" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q20" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R20" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S20" s="39">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T20" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U20" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V20" s="40">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W20" s="40" t="n"/>
       <c r="X20" s="40" t="n"/>
       <c r="Y20" s="39">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z20" s="40" t="n"/>
       <c r="AA20" s="40" t="n"/>
       <c r="AB20" s="41" t="n"/>
       <c r="AC20" s="37">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD20" s="47" t="inlineStr">
@@ -2077,8 +1939,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="48" t="n">
-        <v>44257</v>
+      <c r="A21" s="43" t="n">
+        <v>45278</v>
       </c>
       <c r="B21" s="44" t="inlineStr">
         <is>
@@ -2087,17 +1949,17 @@
       </c>
       <c r="C21" s="44" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D21" s="45" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="E21" s="46" t="n">
-        <v>40.49</v>
+        <v>125.73</v>
       </c>
       <c r="F21" s="46" t="n">
-        <v>8097.1</v>
+        <v>1257.3</v>
       </c>
       <c r="G21" s="44" t="inlineStr">
         <is>
@@ -2105,74 +1967,74 @@
         </is>
       </c>
       <c r="H21" s="46" t="n">
-        <v>8.130000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="I21" s="45" t="n">
-        <v>47.47</v>
+        <v>7.55</v>
       </c>
       <c r="J21" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K21" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L21" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M21" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N21" s="38">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O21" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P21" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q21" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R21" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S21" s="39">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T21" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U21" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V21" s="40">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W21" s="40" t="n"/>
       <c r="X21" s="40" t="n"/>
       <c r="Y21" s="39">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z21" s="40" t="n"/>
       <c r="AA21" s="40" t="n"/>
       <c r="AB21" s="41" t="n"/>
       <c r="AC21" s="37">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD21" s="47" t="inlineStr">
@@ -2182,8 +2044,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="48" t="n">
-        <v>44021</v>
+      <c r="A22" s="43" t="n">
+        <v>45258</v>
       </c>
       <c r="B22" s="44" t="inlineStr">
         <is>
@@ -2196,13 +2058,13 @@
         </is>
       </c>
       <c r="D22" s="45" t="n">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E22" s="46" t="n">
-        <v>33.03</v>
+        <v>107.7</v>
       </c>
       <c r="F22" s="46" t="n">
-        <v>3335.87</v>
+        <v>1077.03</v>
       </c>
       <c r="G22" s="44" t="inlineStr">
         <is>
@@ -2210,55 +2072,76 @@
         </is>
       </c>
       <c r="H22" s="46" t="n">
-        <v>3.36</v>
+        <v>1.07</v>
       </c>
       <c r="I22" s="45" t="n">
-        <v>19.71</v>
+        <v>6.46</v>
       </c>
       <c r="J22" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K22" s="54" t="n"/>
-      <c r="L22" s="54">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+      <c r="K22" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
-      <c r="M22" s="50">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+      <c r="L22" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
-      <c r="N22" s="51">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+      <c r="M22" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
-      <c r="O22" s="52" t="n"/>
-      <c r="P22" s="54" t="n"/>
-      <c r="Q22" s="50" t="n"/>
-      <c r="R22" s="50" t="n"/>
-      <c r="S22" s="53" t="n"/>
-      <c r="T22" s="53" t="n"/>
-      <c r="U22" s="53" t="n"/>
-      <c r="V22" s="53" t="n"/>
-      <c r="W22" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X22" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y22" s="39" t="n">
-        <v>0.2090873907</v>
-      </c>
-      <c r="Z22" s="54" t="n">
-        <v>702.312</v>
-      </c>
-      <c r="AA22" s="54" t="n">
-        <v>4061.412</v>
-      </c>
-      <c r="AB22" s="55" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC22" s="54" t="n"/>
+      <c r="N22" s="38">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <v/>
+      </c>
+      <c r="O22" s="36">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="P22" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="Q22" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <v/>
+      </c>
+      <c r="R22" s="37">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="S22" s="39">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="T22" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <v/>
+      </c>
+      <c r="U22" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <v/>
+      </c>
+      <c r="V22" s="40">
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <v/>
+      </c>
+      <c r="W22" s="40" t="n"/>
+      <c r="X22" s="40" t="n"/>
+      <c r="Y22" s="39">
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <v/>
+      </c>
+      <c r="Z22" s="40" t="n"/>
+      <c r="AA22" s="40" t="n"/>
+      <c r="AB22" s="41" t="n"/>
+      <c r="AC22" s="37">
+        <f>if(B10="DIV", F10,"")</f>
+        <v/>
+      </c>
       <c r="AD22" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
@@ -2266,83 +2149,104 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="43" t="n">
-        <v>43910</v>
+      <c r="A23" s="48" t="n">
+        <v>44257</v>
       </c>
       <c r="B23" s="44" t="inlineStr">
         <is>
-          <t>MRGR</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="44" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D23" s="45" t="n">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="E23" s="46" t="n">
-        <v>143.44</v>
+        <v>40.49</v>
       </c>
       <c r="F23" s="46" t="n">
-        <v>14200.35</v>
+        <v>8097.1</v>
       </c>
       <c r="G23" s="44" t="inlineStr">
         <is>
-          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H23" s="46" t="n">
-        <v>14</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="I23" s="45" t="n">
-        <v>86.34999999999999</v>
+        <v>47.47</v>
       </c>
       <c r="J23" s="35">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K23" s="54" t="n"/>
-      <c r="L23" s="54">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+      <c r="K23" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
-      <c r="M23" s="50">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+      <c r="L23" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
-      <c r="N23" s="51">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+      <c r="M23" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
-      <c r="O23" s="52" t="n"/>
-      <c r="P23" s="54" t="n"/>
-      <c r="Q23" s="50" t="n"/>
-      <c r="R23" s="50" t="n"/>
-      <c r="S23" s="53" t="n"/>
-      <c r="T23" s="53" t="n"/>
-      <c r="U23" s="53" t="n"/>
-      <c r="V23" s="53" t="n"/>
-      <c r="W23" s="54" t="n">
-        <v>40.212</v>
-      </c>
-      <c r="X23" s="54" t="n">
-        <v>44257</v>
-      </c>
-      <c r="Y23" s="39" t="n">
-        <v>-0.7216375422</v>
-      </c>
-      <c r="Z23" s="54" t="n">
-        <v>-10319.922</v>
-      </c>
-      <c r="AA23" s="54" t="n">
-        <v>3980.988</v>
-      </c>
-      <c r="AB23" s="55" t="n">
-        <v>99</v>
-      </c>
-      <c r="AC23" s="54" t="n"/>
+      <c r="N23" s="38">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <v/>
+      </c>
+      <c r="O23" s="36">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="P23" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <v/>
+      </c>
+      <c r="R23" s="37">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="S23" s="39">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="T23" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <v/>
+      </c>
+      <c r="U23" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <v/>
+      </c>
+      <c r="V23" s="40">
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <v/>
+      </c>
+      <c r="W23" s="40" t="n"/>
+      <c r="X23" s="40" t="n"/>
+      <c r="Y23" s="39">
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <v/>
+      </c>
+      <c r="Z23" s="40" t="n"/>
+      <c r="AA23" s="40" t="n"/>
+      <c r="AB23" s="41" t="n"/>
+      <c r="AC23" s="37">
+        <f>if(B11="DIV", F11,"")</f>
+        <v/>
+      </c>
       <c r="AD23" s="47" t="inlineStr">
         <is>
           <t>SBI Securities</t>
@@ -2350,68 +2254,172 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="56" t="n"/>
-      <c r="B24" s="56" t="n"/>
-      <c r="C24" s="56" t="n"/>
-      <c r="D24" s="56" t="n"/>
-      <c r="E24" s="57" t="n"/>
-      <c r="F24" s="57" t="n"/>
-      <c r="G24" s="58" t="n"/>
-      <c r="H24" s="57" t="n"/>
-      <c r="I24" s="56" t="n"/>
-      <c r="J24" s="57" t="n"/>
-      <c r="K24" s="57" t="n"/>
-      <c r="L24" s="57" t="n"/>
-      <c r="M24" s="2" t="n"/>
-      <c r="N24" s="56" t="n"/>
-      <c r="O24" s="56" t="n"/>
-      <c r="P24" s="56" t="n"/>
-      <c r="Q24" s="56" t="n"/>
-      <c r="R24" s="56" t="n"/>
-      <c r="S24" s="56" t="n"/>
-      <c r="T24" s="56" t="n"/>
-      <c r="U24" s="56" t="n"/>
-      <c r="V24" s="56" t="n"/>
-      <c r="W24" s="57" t="n"/>
-      <c r="X24" s="57" t="n"/>
-      <c r="Y24" s="57" t="n"/>
-      <c r="Z24" s="57" t="n"/>
-      <c r="AA24" s="57" t="n"/>
-      <c r="AB24" s="57" t="n"/>
-      <c r="AC24" s="57" t="n"/>
-      <c r="AD24" s="56" t="n"/>
+      <c r="A24" s="48" t="n">
+        <v>44021</v>
+      </c>
+      <c r="B24" s="44" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C24" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D24" s="45" t="n">
+        <v>101</v>
+      </c>
+      <c r="E24" s="46" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="F24" s="46" t="n">
+        <v>3335.87</v>
+      </c>
+      <c r="G24" s="44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H24" s="46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="I24" s="45" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="J24" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K24" s="54" t="n"/>
+      <c r="L24" s="54">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((J12*D12)-(E12*D12)+I12), "")</f>
+        <v/>
+      </c>
+      <c r="M24" s="50">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), J12*D12, "")</f>
+        <v/>
+      </c>
+      <c r="N24" s="51">
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <v/>
+      </c>
+      <c r="O24" s="52" t="n"/>
+      <c r="P24" s="54" t="n"/>
+      <c r="Q24" s="50" t="n"/>
+      <c r="R24" s="50" t="n"/>
+      <c r="S24" s="53" t="n"/>
+      <c r="T24" s="53" t="n"/>
+      <c r="U24" s="53" t="n"/>
+      <c r="V24" s="53" t="n"/>
+      <c r="W24" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X24" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y24" s="39" t="n">
+        <v>0.2090873907</v>
+      </c>
+      <c r="Z24" s="54" t="n">
+        <v>702.312</v>
+      </c>
+      <c r="AA24" s="54" t="n">
+        <v>4061.412</v>
+      </c>
+      <c r="AB24" s="55" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC24" s="54" t="n"/>
+      <c r="AD24" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="56" t="n"/>
-      <c r="B25" s="56" t="n"/>
-      <c r="C25" s="56" t="n"/>
-      <c r="D25" s="56" t="n"/>
-      <c r="E25" s="57" t="n"/>
-      <c r="F25" s="57" t="n"/>
-      <c r="G25" s="58" t="n"/>
-      <c r="H25" s="57" t="n"/>
-      <c r="I25" s="56" t="n"/>
-      <c r="J25" s="57" t="n"/>
-      <c r="K25" s="57" t="n"/>
-      <c r="L25" s="57" t="n"/>
-      <c r="M25" s="2" t="n"/>
-      <c r="N25" s="56" t="n"/>
-      <c r="O25" s="56" t="n"/>
-      <c r="P25" s="56" t="n"/>
-      <c r="Q25" s="56" t="n"/>
-      <c r="R25" s="56" t="n"/>
-      <c r="S25" s="56" t="n"/>
-      <c r="T25" s="56" t="n"/>
-      <c r="U25" s="56" t="n"/>
-      <c r="V25" s="56" t="n"/>
-      <c r="W25" s="57" t="n"/>
-      <c r="X25" s="57" t="n"/>
-      <c r="Y25" s="57" t="n"/>
-      <c r="Z25" s="57" t="n"/>
-      <c r="AA25" s="57" t="n"/>
-      <c r="AB25" s="57" t="n"/>
-      <c r="AC25" s="57" t="n"/>
-      <c r="AD25" s="56" t="n"/>
+      <c r="A25" s="43" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B25" s="44" t="inlineStr">
+        <is>
+          <t>MRGR</t>
+        </is>
+      </c>
+      <c r="C25" s="44" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D25" s="45" t="n">
+        <v>99</v>
+      </c>
+      <c r="E25" s="46" t="n">
+        <v>143.44</v>
+      </c>
+      <c r="F25" s="46" t="n">
+        <v>14200.35</v>
+      </c>
+      <c r="G25" s="44" t="inlineStr">
+        <is>
+          <t>330:1000 Merger of 532179 to 532477 on 20-MAR-2020 325:1000 Merger of 532418 to 532477 on 20-MAR-2020</t>
+        </is>
+      </c>
+      <c r="H25" s="46" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" s="45" t="n">
+        <v>86.34999999999999</v>
+      </c>
+      <c r="J25" s="35">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K25" s="54" t="n"/>
+      <c r="L25" s="54">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((J13*D13)-(E13*D13)+I13), "")</f>
+        <v/>
+      </c>
+      <c r="M25" s="50">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), J13*D13, "")</f>
+        <v/>
+      </c>
+      <c r="N25" s="51">
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <v/>
+      </c>
+      <c r="O25" s="52" t="n"/>
+      <c r="P25" s="54" t="n"/>
+      <c r="Q25" s="50" t="n"/>
+      <c r="R25" s="50" t="n"/>
+      <c r="S25" s="53" t="n"/>
+      <c r="T25" s="53" t="n"/>
+      <c r="U25" s="53" t="n"/>
+      <c r="V25" s="53" t="n"/>
+      <c r="W25" s="54" t="n">
+        <v>40.212</v>
+      </c>
+      <c r="X25" s="54" t="n">
+        <v>44257</v>
+      </c>
+      <c r="Y25" s="39" t="n">
+        <v>-0.7216375422</v>
+      </c>
+      <c r="Z25" s="54" t="n">
+        <v>-10319.922</v>
+      </c>
+      <c r="AA25" s="54" t="n">
+        <v>3980.988</v>
+      </c>
+      <c r="AB25" s="55" t="n">
+        <v>99</v>
+      </c>
+      <c r="AC25" s="54" t="n"/>
+      <c r="AD25" s="47" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="56" t="n"/>
@@ -33850,7 +33858,7 @@
       <c r="J1008" s="57" t="n"/>
       <c r="K1008" s="57" t="n"/>
       <c r="L1008" s="57" t="n"/>
-      <c r="M1008" s="56" t="n"/>
+      <c r="M1008" s="2" t="n"/>
       <c r="N1008" s="56" t="n"/>
       <c r="O1008" s="56" t="n"/>
       <c r="P1008" s="56" t="n"/>
@@ -33882,7 +33890,7 @@
       <c r="J1009" s="57" t="n"/>
       <c r="K1009" s="57" t="n"/>
       <c r="L1009" s="57" t="n"/>
-      <c r="M1009" s="56" t="n"/>
+      <c r="M1009" s="2" t="n"/>
       <c r="N1009" s="56" t="n"/>
       <c r="O1009" s="56" t="n"/>
       <c r="P1009" s="56" t="n"/>
@@ -34380,6 +34388,70 @@
       <c r="AB1024" s="57" t="n"/>
       <c r="AC1024" s="57" t="n"/>
       <c r="AD1024" s="56" t="n"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="56" t="n"/>
+      <c r="B1025" s="56" t="n"/>
+      <c r="C1025" s="56" t="n"/>
+      <c r="D1025" s="56" t="n"/>
+      <c r="E1025" s="57" t="n"/>
+      <c r="F1025" s="57" t="n"/>
+      <c r="G1025" s="58" t="n"/>
+      <c r="H1025" s="57" t="n"/>
+      <c r="I1025" s="56" t="n"/>
+      <c r="J1025" s="57" t="n"/>
+      <c r="K1025" s="57" t="n"/>
+      <c r="L1025" s="57" t="n"/>
+      <c r="M1025" s="56" t="n"/>
+      <c r="N1025" s="56" t="n"/>
+      <c r="O1025" s="56" t="n"/>
+      <c r="P1025" s="56" t="n"/>
+      <c r="Q1025" s="56" t="n"/>
+      <c r="R1025" s="56" t="n"/>
+      <c r="S1025" s="56" t="n"/>
+      <c r="T1025" s="56" t="n"/>
+      <c r="U1025" s="56" t="n"/>
+      <c r="V1025" s="56" t="n"/>
+      <c r="W1025" s="57" t="n"/>
+      <c r="X1025" s="57" t="n"/>
+      <c r="Y1025" s="57" t="n"/>
+      <c r="Z1025" s="57" t="n"/>
+      <c r="AA1025" s="57" t="n"/>
+      <c r="AB1025" s="57" t="n"/>
+      <c r="AC1025" s="57" t="n"/>
+      <c r="AD1025" s="56" t="n"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="56" t="n"/>
+      <c r="B1026" s="56" t="n"/>
+      <c r="C1026" s="56" t="n"/>
+      <c r="D1026" s="56" t="n"/>
+      <c r="E1026" s="57" t="n"/>
+      <c r="F1026" s="57" t="n"/>
+      <c r="G1026" s="58" t="n"/>
+      <c r="H1026" s="57" t="n"/>
+      <c r="I1026" s="56" t="n"/>
+      <c r="J1026" s="57" t="n"/>
+      <c r="K1026" s="57" t="n"/>
+      <c r="L1026" s="57" t="n"/>
+      <c r="M1026" s="56" t="n"/>
+      <c r="N1026" s="56" t="n"/>
+      <c r="O1026" s="56" t="n"/>
+      <c r="P1026" s="56" t="n"/>
+      <c r="Q1026" s="56" t="n"/>
+      <c r="R1026" s="56" t="n"/>
+      <c r="S1026" s="56" t="n"/>
+      <c r="T1026" s="56" t="n"/>
+      <c r="U1026" s="56" t="n"/>
+      <c r="V1026" s="56" t="n"/>
+      <c r="W1026" s="57" t="n"/>
+      <c r="X1026" s="57" t="n"/>
+      <c r="Y1026" s="57" t="n"/>
+      <c r="Z1026" s="57" t="n"/>
+      <c r="AA1026" s="57" t="n"/>
+      <c r="AB1026" s="57" t="n"/>
+      <c r="AC1026" s="57" t="n"/>
+      <c r="AD1026" s="56" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$B$4:$AO$92"/>
